--- a/BackTest/2020-01-16 BackTest BCD.xlsx
+++ b/BackTest/2020-01-16 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-147059.69615292</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -583,2084 +583,1808 @@
         <v>-153406.13154686</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>492</v>
+      </c>
+      <c r="C7" t="n">
+        <v>494</v>
+      </c>
+      <c r="D7" t="n">
+        <v>494</v>
+      </c>
+      <c r="E7" t="n">
+        <v>491</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1340.8681</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-152065.26344686</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>494</v>
+      </c>
+      <c r="C8" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>495</v>
+      </c>
+      <c r="E8" t="n">
+        <v>494</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7539.43</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-144525.83344686</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>498.8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>497</v>
+      </c>
+      <c r="D9" t="n">
+        <v>499.9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>497</v>
+      </c>
+      <c r="F9" t="n">
+        <v>816.6706</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-143709.16284686</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>496</v>
+      </c>
+      <c r="C10" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24173.8209</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-167882.98374686</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2526.6197</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-167882.98374686</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>500.8</v>
+      </c>
+      <c r="C12" t="n">
+        <v>497.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>501.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>497.3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3198.0009</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-164684.98284686</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>496.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>496.6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2405.59821922</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-162279.38462764</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>498</v>
+      </c>
+      <c r="C14" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>498.4</v>
+      </c>
+      <c r="E14" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>388.02151847</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-162279.38462764</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>497</v>
+      </c>
+      <c r="D15" t="n">
+        <v>497.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>497</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2585.1006</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-164864.48522764</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>496.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>495</v>
+      </c>
+      <c r="D16" t="n">
+        <v>496.4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>495</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1097.5432</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-165962.02842764</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>495</v>
+      </c>
+      <c r="C17" t="n">
+        <v>496</v>
+      </c>
+      <c r="D17" t="n">
+        <v>496</v>
+      </c>
+      <c r="E17" t="n">
+        <v>495</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1109.9297</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-164852.09872764</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>496</v>
+      </c>
+      <c r="C18" t="n">
         <v>492.3</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
+      <c r="D18" t="n">
+        <v>496.8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1330.2232</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-166182.32192764</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>496</v>
+      </c>
+      <c r="C19" t="n">
+        <v>492</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>491</v>
+      </c>
+      <c r="F19" t="n">
+        <v>11808.7656</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-177991.08752764</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>493</v>
+      </c>
+      <c r="C20" t="n">
+        <v>492</v>
+      </c>
+      <c r="D20" t="n">
+        <v>493</v>
+      </c>
+      <c r="E20" t="n">
+        <v>492</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4905.117</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-177991.08752764</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>492</v>
+      </c>
+      <c r="C21" t="n">
+        <v>492</v>
+      </c>
+      <c r="D21" t="n">
+        <v>492</v>
+      </c>
+      <c r="E21" t="n">
+        <v>492</v>
+      </c>
+      <c r="F21" t="n">
+        <v>22341.3096</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-177991.08752764</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>492</v>
+      </c>
+      <c r="C22" t="n">
+        <v>492</v>
+      </c>
+      <c r="D22" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>492</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3796.3178</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-177991.08752764</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>493</v>
+      </c>
+      <c r="C23" t="n">
+        <v>493</v>
+      </c>
+      <c r="D23" t="n">
+        <v>493</v>
+      </c>
+      <c r="E23" t="n">
+        <v>493</v>
+      </c>
+      <c r="F23" t="n">
+        <v>902.7903</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-177088.29722764</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>493</v>
+      </c>
+      <c r="C24" t="n">
+        <v>493</v>
+      </c>
+      <c r="D24" t="n">
+        <v>493</v>
+      </c>
+      <c r="E24" t="n">
+        <v>493</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4426.455</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-177088.29722764</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>492</v>
+      </c>
+      <c r="C25" t="n">
+        <v>490</v>
+      </c>
+      <c r="D25" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>490</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2709.5778</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-179797.87502764</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>490</v>
+      </c>
+      <c r="C26" t="n">
+        <v>490</v>
+      </c>
+      <c r="D26" t="n">
+        <v>490</v>
+      </c>
+      <c r="E26" t="n">
+        <v>489</v>
+      </c>
+      <c r="F26" t="n">
+        <v>31989.812</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-179797.87502764</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>485.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>489.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>485.9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1329.6148</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-181127.48982764</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>491.1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>491.1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>490.1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1643.0865</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-179484.40332764</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>491</v>
+      </c>
+      <c r="C29" t="n">
+        <v>493</v>
+      </c>
+      <c r="D29" t="n">
+        <v>493</v>
+      </c>
+      <c r="E29" t="n">
+        <v>491</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4937.6645716</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-174546.73875604</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>491</v>
+      </c>
+      <c r="C30" t="n">
+        <v>491</v>
+      </c>
+      <c r="D30" t="n">
+        <v>491</v>
+      </c>
+      <c r="E30" t="n">
+        <v>491</v>
+      </c>
+      <c r="F30" t="n">
+        <v>553.78615071</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-175100.52490675</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>491</v>
+      </c>
+      <c r="C31" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>491</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1739.73714929</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-173360.78775746</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>491</v>
+      </c>
+      <c r="C32" t="n">
+        <v>491</v>
+      </c>
+      <c r="D32" t="n">
+        <v>491</v>
+      </c>
+      <c r="E32" t="n">
+        <v>491</v>
+      </c>
+      <c r="F32" t="n">
+        <v>192.6365</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-173553.42425746</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="C33" t="n">
+        <v>490</v>
+      </c>
+      <c r="D33" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>490</v>
+      </c>
+      <c r="F33" t="n">
+        <v>3302.1086</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-176855.53285746</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>492.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>492.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>494.9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>492.6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1598.74405248</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-175256.78880498</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="D35" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-175156.78880498</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>493.7</v>
+      </c>
+      <c r="C36" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="D36" t="n">
+        <v>495.7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>493.7</v>
+      </c>
+      <c r="F36" t="n">
+        <v>532.0719</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-175688.86070498</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>992.3977</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-175688.86070498</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>495.7</v>
+      </c>
+      <c r="C38" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>495.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>600</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-175088.86070498</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="C39" t="n">
+        <v>497</v>
+      </c>
+      <c r="D39" t="n">
+        <v>497</v>
+      </c>
+      <c r="E39" t="n">
+        <v>495.9</v>
+      </c>
+      <c r="F39" t="n">
+        <v>3901.5688</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-171187.29190498</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>495.7</v>
+      </c>
+      <c r="C40" t="n">
+        <v>497</v>
+      </c>
+      <c r="D40" t="n">
+        <v>497</v>
+      </c>
+      <c r="E40" t="n">
+        <v>495.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2099.4243</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-171187.29190498</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>497</v>
+      </c>
+      <c r="C41" t="n">
+        <v>497</v>
+      </c>
+      <c r="D41" t="n">
+        <v>497</v>
+      </c>
+      <c r="E41" t="n">
+        <v>497</v>
+      </c>
+      <c r="F41" t="n">
+        <v>232.7491</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-171187.29190498</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>499.8</v>
+      </c>
+      <c r="C42" t="n">
+        <v>499.7</v>
+      </c>
+      <c r="D42" t="n">
+        <v>499.8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>495.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1415.9173</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-169771.37460498</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>502</v>
+      </c>
+      <c r="C43" t="n">
+        <v>502</v>
+      </c>
+      <c r="D43" t="n">
+        <v>502</v>
+      </c>
+      <c r="E43" t="n">
+        <v>501</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1047.5624</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-168723.81220498</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>502</v>
+      </c>
+      <c r="C44" t="n">
+        <v>501</v>
+      </c>
+      <c r="D44" t="n">
+        <v>504.4</v>
+      </c>
+      <c r="E44" t="n">
+        <v>501</v>
+      </c>
+      <c r="F44" t="n">
+        <v>269.3</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-168993.11220498</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>501</v>
+      </c>
+      <c r="C45" t="n">
+        <v>505.4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>505.4</v>
+      </c>
+      <c r="E45" t="n">
+        <v>501</v>
+      </c>
+      <c r="F45" t="n">
+        <v>334.059</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-168659.05320498</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>501</v>
+      </c>
+      <c r="C46" t="n">
+        <v>501</v>
+      </c>
+      <c r="D46" t="n">
+        <v>501</v>
+      </c>
+      <c r="E46" t="n">
+        <v>500</v>
+      </c>
+      <c r="F46" t="n">
+        <v>516.0184</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-169175.07160498</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>500</v>
+      </c>
+      <c r="C47" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="D47" t="n">
+        <v>500</v>
+      </c>
+      <c r="E47" t="n">
+        <v>493.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>39266.3769</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-208441.44850498</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>488.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>483.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>20242.5692</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-228684.01770498</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>486.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>486.1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>486.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>486.1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>17622.531</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-246306.5487049799</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>488.7</v>
+      </c>
+      <c r="C50" t="n">
+        <v>483</v>
+      </c>
+      <c r="D50" t="n">
+        <v>488.7</v>
+      </c>
+      <c r="E50" t="n">
+        <v>483</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7278.8302</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-253585.3789049799</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>486.5</v>
+      </c>
+      <c r="C51" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>487.6</v>
+      </c>
+      <c r="E51" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2322.1834</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-251263.1955049799</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>492.5</v>
+      </c>
+      <c r="C52" t="n">
+        <v>490.9</v>
+      </c>
+      <c r="D52" t="n">
+        <v>492.6</v>
+      </c>
+      <c r="E52" t="n">
+        <v>490.9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7101.6511</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-244161.5444049799</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>490.2</v>
+      </c>
+      <c r="C53" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>495.3</v>
+      </c>
+      <c r="E53" t="n">
+        <v>490.2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>14294.9015</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-229866.6429049799</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>490.9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="C54" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>493.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1876.3519</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-229866.6429049799</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>492.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>486.4</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>496</v>
+      </c>
+      <c r="E55" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>725.9345</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-229140.7084049799</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>498.7</v>
+      </c>
+      <c r="C56" t="n">
+        <v>498.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>498.7</v>
+      </c>
+      <c r="E56" t="n">
+        <v>498.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>514.0933</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-228626.6151049799</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="C57" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1881.5376</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-226745.0775049799</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>498.7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>497</v>
+      </c>
+      <c r="C58" t="n">
+        <v>497</v>
+      </c>
+      <c r="D58" t="n">
+        <v>497</v>
+      </c>
+      <c r="E58" t="n">
+        <v>497</v>
+      </c>
+      <c r="F58" t="n">
+        <v>30.6654</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-226775.7429049799</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>498.9</v>
+      </c>
+      <c r="J58" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>497</v>
+      </c>
+      <c r="C59" t="n">
+        <v>499.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>499.9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>497</v>
+      </c>
+      <c r="F59" t="n">
+        <v>492.6176</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-226283.1253049799</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>497</v>
+      </c>
+      <c r="J59" t="n">
+        <v>495.1</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>492</v>
-      </c>
-      <c r="C7" t="n">
-        <v>494</v>
-      </c>
-      <c r="D7" t="n">
-        <v>494</v>
-      </c>
-      <c r="E7" t="n">
-        <v>491</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1340.8681</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-152065.26344686</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>491</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>494</v>
-      </c>
-      <c r="C8" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>495</v>
-      </c>
-      <c r="E8" t="n">
-        <v>494</v>
-      </c>
-      <c r="F8" t="n">
-        <v>7539.43</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-144525.83344686</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>494</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>498.8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>497</v>
-      </c>
-      <c r="D9" t="n">
-        <v>499.9</v>
-      </c>
-      <c r="E9" t="n">
-        <v>497</v>
-      </c>
-      <c r="F9" t="n">
-        <v>816.6706</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-143709.16284686</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>496</v>
-      </c>
-      <c r="C10" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>496</v>
-      </c>
-      <c r="E10" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24173.8209</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-167882.98374686</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>497</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2526.6197</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-167882.98374686</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>500.8</v>
-      </c>
-      <c r="C12" t="n">
-        <v>497.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>501.8</v>
-      </c>
-      <c r="E12" t="n">
-        <v>497.3</v>
-      </c>
-      <c r="F12" t="n">
-        <v>3198.0009</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-164684.98284686</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>494.1</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>496.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>500.9</v>
-      </c>
-      <c r="E13" t="n">
-        <v>496.6</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2405.59821922</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-162279.38462764</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>497.4</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>498</v>
-      </c>
-      <c r="C14" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>498.4</v>
-      </c>
-      <c r="E14" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="F14" t="n">
-        <v>388.02151847</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-162279.38462764</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>497</v>
-      </c>
-      <c r="D15" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>497</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2585.1006</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-164864.48522764</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>497.5</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>496.4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>495</v>
-      </c>
-      <c r="D16" t="n">
-        <v>496.4</v>
-      </c>
-      <c r="E16" t="n">
-        <v>495</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1097.5432</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-165962.02842764</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>497</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>495</v>
-      </c>
-      <c r="C17" t="n">
-        <v>496</v>
-      </c>
-      <c r="D17" t="n">
-        <v>496</v>
-      </c>
-      <c r="E17" t="n">
-        <v>495</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1109.9297</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-164852.09872764</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>495</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>496</v>
-      </c>
-      <c r="C18" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>496.8</v>
-      </c>
-      <c r="E18" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1330.2232</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-166182.32192764</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>496</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>496</v>
-      </c>
-      <c r="C19" t="n">
-        <v>492</v>
-      </c>
-      <c r="D19" t="n">
-        <v>500.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>491</v>
-      </c>
-      <c r="F19" t="n">
-        <v>11808.7656</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-177991.08752764</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>493</v>
-      </c>
-      <c r="C20" t="n">
-        <v>492</v>
-      </c>
-      <c r="D20" t="n">
-        <v>493</v>
-      </c>
-      <c r="E20" t="n">
-        <v>492</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4905.117</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-177991.08752764</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>492</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>492</v>
-      </c>
-      <c r="C21" t="n">
-        <v>492</v>
-      </c>
-      <c r="D21" t="n">
-        <v>492</v>
-      </c>
-      <c r="E21" t="n">
-        <v>492</v>
-      </c>
-      <c r="F21" t="n">
-        <v>22341.3096</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-177991.08752764</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>492</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>492</v>
-      </c>
-      <c r="C22" t="n">
-        <v>492</v>
-      </c>
-      <c r="D22" t="n">
-        <v>492.5</v>
-      </c>
-      <c r="E22" t="n">
-        <v>492</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3796.3178</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-177991.08752764</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>492</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>493</v>
-      </c>
-      <c r="C23" t="n">
-        <v>493</v>
-      </c>
-      <c r="D23" t="n">
-        <v>493</v>
-      </c>
-      <c r="E23" t="n">
-        <v>493</v>
-      </c>
-      <c r="F23" t="n">
-        <v>902.7903</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-177088.29722764</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>492</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>493</v>
-      </c>
-      <c r="C24" t="n">
-        <v>493</v>
-      </c>
-      <c r="D24" t="n">
-        <v>493</v>
-      </c>
-      <c r="E24" t="n">
-        <v>493</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4426.455</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-177088.29722764</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>493</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>492</v>
-      </c>
-      <c r="C25" t="n">
-        <v>490</v>
-      </c>
-      <c r="D25" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="E25" t="n">
-        <v>490</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2709.5778</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-179797.87502764</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>493</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>490</v>
-      </c>
-      <c r="C26" t="n">
-        <v>490</v>
-      </c>
-      <c r="D26" t="n">
-        <v>490</v>
-      </c>
-      <c r="E26" t="n">
-        <v>489</v>
-      </c>
-      <c r="F26" t="n">
-        <v>31989.812</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-179797.87502764</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>490</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>489.5</v>
-      </c>
-      <c r="C27" t="n">
-        <v>485.9</v>
-      </c>
-      <c r="D27" t="n">
-        <v>489.5</v>
-      </c>
-      <c r="E27" t="n">
-        <v>485.9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1329.6148</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-181127.48982764</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>490</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>491.1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>491.1</v>
-      </c>
-      <c r="E28" t="n">
-        <v>490.1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1643.0865</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-179484.40332764</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>485.9</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>491</v>
-      </c>
-      <c r="C29" t="n">
-        <v>493</v>
-      </c>
-      <c r="D29" t="n">
-        <v>493</v>
-      </c>
-      <c r="E29" t="n">
-        <v>491</v>
-      </c>
-      <c r="F29" t="n">
-        <v>4937.6645716</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-174546.73875604</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>491.1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>491</v>
-      </c>
-      <c r="C30" t="n">
-        <v>491</v>
-      </c>
-      <c r="D30" t="n">
-        <v>491</v>
-      </c>
-      <c r="E30" t="n">
-        <v>491</v>
-      </c>
-      <c r="F30" t="n">
-        <v>553.78615071</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-175100.52490675</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>493</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>491</v>
-      </c>
-      <c r="C31" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="D31" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="E31" t="n">
-        <v>491</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1739.73714929</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-173360.78775746</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>491</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>491</v>
-      </c>
-      <c r="C32" t="n">
-        <v>491</v>
-      </c>
-      <c r="D32" t="n">
-        <v>491</v>
-      </c>
-      <c r="E32" t="n">
-        <v>491</v>
-      </c>
-      <c r="F32" t="n">
-        <v>192.6365</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-173553.42425746</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="C33" t="n">
-        <v>490</v>
-      </c>
-      <c r="D33" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="E33" t="n">
-        <v>490</v>
-      </c>
-      <c r="F33" t="n">
-        <v>3302.1086</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-176855.53285746</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>491</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>492.9</v>
-      </c>
-      <c r="C34" t="n">
-        <v>492.6</v>
-      </c>
-      <c r="D34" t="n">
-        <v>494.9</v>
-      </c>
-      <c r="E34" t="n">
-        <v>492.6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1598.74405248</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-175256.78880498</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>490</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>495.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>495.8</v>
-      </c>
-      <c r="D35" t="n">
-        <v>495.8</v>
-      </c>
-      <c r="E35" t="n">
-        <v>495.8</v>
-      </c>
-      <c r="F35" t="n">
-        <v>100</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-175156.78880498</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>492.6</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>493.7</v>
-      </c>
-      <c r="C36" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="D36" t="n">
-        <v>495.7</v>
-      </c>
-      <c r="E36" t="n">
-        <v>493.7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>532.0719</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-175688.86070498</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>495.8</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="C37" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="D37" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="E37" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>992.3977</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-175688.86070498</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>495.7</v>
-      </c>
-      <c r="C38" t="n">
-        <v>495.9</v>
-      </c>
-      <c r="D38" t="n">
-        <v>495.9</v>
-      </c>
-      <c r="E38" t="n">
-        <v>495.7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>600</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-175088.86070498</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>495.9</v>
-      </c>
-      <c r="C39" t="n">
-        <v>497</v>
-      </c>
-      <c r="D39" t="n">
-        <v>497</v>
-      </c>
-      <c r="E39" t="n">
-        <v>495.9</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3901.5688</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-171187.29190498</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>495.9</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>495.7</v>
-      </c>
-      <c r="C40" t="n">
-        <v>497</v>
-      </c>
-      <c r="D40" t="n">
-        <v>497</v>
-      </c>
-      <c r="E40" t="n">
-        <v>495.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>2099.4243</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-171187.29190498</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>497</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>497</v>
-      </c>
-      <c r="C41" t="n">
-        <v>497</v>
-      </c>
-      <c r="D41" t="n">
-        <v>497</v>
-      </c>
-      <c r="E41" t="n">
-        <v>497</v>
-      </c>
-      <c r="F41" t="n">
-        <v>232.7491</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-171187.29190498</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>497</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>499.8</v>
-      </c>
-      <c r="C42" t="n">
-        <v>499.7</v>
-      </c>
-      <c r="D42" t="n">
-        <v>499.8</v>
-      </c>
-      <c r="E42" t="n">
-        <v>495.8</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1415.9173</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-169771.37460498</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>497</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>502</v>
-      </c>
-      <c r="C43" t="n">
-        <v>502</v>
-      </c>
-      <c r="D43" t="n">
-        <v>502</v>
-      </c>
-      <c r="E43" t="n">
-        <v>501</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1047.5624</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-168723.81220498</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>499.7</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>502</v>
-      </c>
-      <c r="C44" t="n">
-        <v>501</v>
-      </c>
-      <c r="D44" t="n">
-        <v>504.4</v>
-      </c>
-      <c r="E44" t="n">
-        <v>501</v>
-      </c>
-      <c r="F44" t="n">
-        <v>269.3</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-168993.11220498</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>502</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>501</v>
-      </c>
-      <c r="C45" t="n">
-        <v>505.4</v>
-      </c>
-      <c r="D45" t="n">
-        <v>505.4</v>
-      </c>
-      <c r="E45" t="n">
-        <v>501</v>
-      </c>
-      <c r="F45" t="n">
-        <v>334.059</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-168659.05320498</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>501</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>501</v>
-      </c>
-      <c r="C46" t="n">
-        <v>501</v>
-      </c>
-      <c r="D46" t="n">
-        <v>501</v>
-      </c>
-      <c r="E46" t="n">
-        <v>500</v>
-      </c>
-      <c r="F46" t="n">
-        <v>516.0184</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-169175.07160498</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>505.4</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>500</v>
-      </c>
-      <c r="C47" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="D47" t="n">
-        <v>500</v>
-      </c>
-      <c r="E47" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>39266.3769</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-208441.44850498</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>501</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>500.9</v>
-      </c>
-      <c r="C48" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="D48" t="n">
-        <v>500.9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>483.1</v>
-      </c>
-      <c r="F48" t="n">
-        <v>20242.5692</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-228684.01770498</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>493.8</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>486.3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>486.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="F49" t="n">
-        <v>17622.531</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-246306.5487049799</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>488.2</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>488.7</v>
-      </c>
-      <c r="C50" t="n">
-        <v>483</v>
-      </c>
-      <c r="D50" t="n">
-        <v>488.7</v>
-      </c>
-      <c r="E50" t="n">
-        <v>483</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7278.8302</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-253585.3789049799</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>486.1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>486.5</v>
-      </c>
-      <c r="C51" t="n">
-        <v>486.4</v>
-      </c>
-      <c r="D51" t="n">
-        <v>487.6</v>
-      </c>
-      <c r="E51" t="n">
-        <v>486.4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2322.1834</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-251263.1955049799</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>483</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>492.5</v>
-      </c>
-      <c r="C52" t="n">
-        <v>490.9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>492.6</v>
-      </c>
-      <c r="E52" t="n">
-        <v>490.9</v>
-      </c>
-      <c r="F52" t="n">
-        <v>7101.6511</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-244161.5444049799</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>486.4</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>490.2</v>
-      </c>
-      <c r="C53" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="D53" t="n">
-        <v>495.3</v>
-      </c>
-      <c r="E53" t="n">
-        <v>490.2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>14294.9015</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-229866.6429049799</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>490.9</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="C54" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="D54" t="n">
-        <v>493.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1876.3519</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-229866.6429049799</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="C55" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="D55" t="n">
-        <v>496</v>
-      </c>
-      <c r="E55" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="F55" t="n">
-        <v>725.9345</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-229140.7084049799</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>492.2</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>498.7</v>
-      </c>
-      <c r="C56" t="n">
-        <v>498.7</v>
-      </c>
-      <c r="D56" t="n">
-        <v>498.7</v>
-      </c>
-      <c r="E56" t="n">
-        <v>498.7</v>
-      </c>
-      <c r="F56" t="n">
-        <v>514.0933</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-228626.6151049799</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>498.9</v>
-      </c>
-      <c r="C57" t="n">
-        <v>498.9</v>
-      </c>
-      <c r="D57" t="n">
-        <v>498.9</v>
-      </c>
-      <c r="E57" t="n">
-        <v>498.9</v>
-      </c>
-      <c r="F57" t="n">
-        <v>1881.5376</v>
-      </c>
-      <c r="G57" t="n">
-        <v>-226745.0775049799</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>498.7</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>497</v>
-      </c>
-      <c r="C58" t="n">
-        <v>497</v>
-      </c>
-      <c r="D58" t="n">
-        <v>497</v>
-      </c>
-      <c r="E58" t="n">
-        <v>497</v>
-      </c>
-      <c r="F58" t="n">
-        <v>30.6654</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-226775.7429049799</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>498.9</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>497</v>
-      </c>
-      <c r="C59" t="n">
-        <v>499.9</v>
-      </c>
-      <c r="D59" t="n">
-        <v>499.9</v>
-      </c>
-      <c r="E59" t="n">
-        <v>497</v>
-      </c>
-      <c r="F59" t="n">
-        <v>492.6176</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-226283.1253049799</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>497</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2694,7 +2418,9 @@
       <c r="I60" t="n">
         <v>499.9</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,7 +2459,9 @@
       <c r="I61" t="n">
         <v>498.9</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2772,7 +2500,9 @@
       <c r="I62" t="n">
         <v>496.2</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2811,7 +2541,9 @@
       <c r="I63" t="n">
         <v>500.8</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2850,7 +2582,9 @@
       <c r="I64" t="n">
         <v>498.7</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2889,7 +2623,9 @@
       <c r="I65" t="n">
         <v>499.7</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2928,7 +2664,9 @@
       <c r="I66" t="n">
         <v>499.7</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2967,7 +2705,9 @@
       <c r="I67" t="n">
         <v>505.3</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3006,7 +2746,9 @@
       <c r="I68" t="n">
         <v>504.3</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3045,7 +2787,9 @@
       <c r="I69" t="n">
         <v>514.6</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,12 +2823,12 @@
         <v>-233331.2080708299</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>514.7</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,12 +2862,12 @@
         <v>-231807.2588708299</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>514.7</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3157,12 +2901,12 @@
         <v>-231807.2588708299</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>519</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,12 +2940,12 @@
         <v>-234126.3968708299</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>519</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3235,12 +2979,12 @@
         <v>-237809.6598708299</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>518.9</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,12 +3018,12 @@
         <v>-240582.0409708299</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>517.9</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3313,12 +3057,12 @@
         <v>-240981.2277708299</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>517.8</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,12 +3096,12 @@
         <v>-241427.5861708299</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>516.8</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,12 +3135,12 @@
         <v>-244567.8573708299</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>516.4</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,12 +3174,12 @@
         <v>-244567.8573708299</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>513</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,7 +3218,9 @@
       <c r="I80" t="n">
         <v>513</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,12 +3254,12 @@
         <v>-244584.8573708299</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>515.8</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,7 +3298,9 @@
       <c r="I82" t="n">
         <v>512.2</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3586,12 +3334,12 @@
         <v>-246090.6766708299</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>511.2</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3630,7 +3378,9 @@
       <c r="I84" t="n">
         <v>512.6</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3669,7 +3419,9 @@
       <c r="I85" t="n">
         <v>509.5</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,7 +3460,9 @@
       <c r="I86" t="n">
         <v>503</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,7 +3501,9 @@
       <c r="I87" t="n">
         <v>499.3</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3786,7 +3542,9 @@
       <c r="I88" t="n">
         <v>497</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3825,7 +3583,9 @@
       <c r="I89" t="n">
         <v>495.2</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3864,7 +3624,9 @@
       <c r="I90" t="n">
         <v>492.9</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3903,7 +3665,9 @@
       <c r="I91" t="n">
         <v>495.3</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3942,7 +3706,9 @@
       <c r="I92" t="n">
         <v>495.5</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3981,7 +3747,9 @@
       <c r="I93" t="n">
         <v>496</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,7 +3788,9 @@
       <c r="I94" t="n">
         <v>496</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4059,7 +3829,9 @@
       <c r="I95" t="n">
         <v>497.9</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +3870,9 @@
       <c r="I96" t="n">
         <v>493.7</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4137,7 +3911,9 @@
       <c r="I97" t="n">
         <v>493.7</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4176,7 +3952,9 @@
       <c r="I98" t="n">
         <v>495</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4215,7 +3993,9 @@
       <c r="I99" t="n">
         <v>493.7</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4254,7 +4034,9 @@
       <c r="I100" t="n">
         <v>492.2</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4293,7 +4075,9 @@
       <c r="I101" t="n">
         <v>492</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4332,7 +4116,9 @@
       <c r="I102" t="n">
         <v>492</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4371,7 +4157,9 @@
       <c r="I103" t="n">
         <v>492.1</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4410,7 +4198,9 @@
       <c r="I104" t="n">
         <v>492.1</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4449,7 +4239,9 @@
       <c r="I105" t="n">
         <v>494.9</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4488,7 +4280,9 @@
       <c r="I106" t="n">
         <v>496.9</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4527,7 +4321,9 @@
       <c r="I107" t="n">
         <v>497</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4566,7 +4362,9 @@
       <c r="I108" t="n">
         <v>499.4</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4605,7 +4403,9 @@
       <c r="I109" t="n">
         <v>496.5</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4644,7 +4444,9 @@
       <c r="I110" t="n">
         <v>496.4</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,7 +4485,9 @@
       <c r="I111" t="n">
         <v>498</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4722,7 +4526,9 @@
       <c r="I112" t="n">
         <v>498</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,7 +4567,9 @@
       <c r="I113" t="n">
         <v>497</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,7 +4608,9 @@
       <c r="I114" t="n">
         <v>493.2</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,7 +4649,9 @@
       <c r="I115" t="n">
         <v>492.1</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,7 +4690,9 @@
       <c r="I116" t="n">
         <v>492.1</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,7 +4731,9 @@
       <c r="I117" t="n">
         <v>492.1</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4956,7 +4772,9 @@
       <c r="I118" t="n">
         <v>492.1</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4995,7 +4813,9 @@
       <c r="I119" t="n">
         <v>496</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5034,7 +4854,9 @@
       <c r="I120" t="n">
         <v>494</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5073,7 +4895,9 @@
       <c r="I121" t="n">
         <v>523.8</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5112,7 +4936,9 @@
       <c r="I122" t="n">
         <v>493.2</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5151,7 +4977,9 @@
       <c r="I123" t="n">
         <v>492.2</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5190,7 +5018,9 @@
       <c r="I124" t="n">
         <v>492.2</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5229,7 +5059,9 @@
       <c r="I125" t="n">
         <v>494.3</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5268,7 +5100,9 @@
       <c r="I126" t="n">
         <v>494.3</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,7 +5141,9 @@
       <c r="I127" t="n">
         <v>494.3</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,7 +5182,9 @@
       <c r="I128" t="n">
         <v>495.3</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5385,7 +5223,9 @@
       <c r="I129" t="n">
         <v>495.3</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,7 +5264,9 @@
       <c r="I130" t="n">
         <v>498.7</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5463,7 +5305,9 @@
       <c r="I131" t="n">
         <v>495.3</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5502,7 +5346,9 @@
       <c r="I132" t="n">
         <v>499.5</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5541,7 +5387,9 @@
       <c r="I133" t="n">
         <v>499</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5580,7 +5428,9 @@
       <c r="I134" t="n">
         <v>500.9</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,7 +5469,9 @@
       <c r="I135" t="n">
         <v>496.5</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,7 +5510,9 @@
       <c r="I136" t="n">
         <v>497</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,7 +5551,9 @@
       <c r="I137" t="n">
         <v>500.1</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,7 +5592,9 @@
       <c r="I138" t="n">
         <v>500.1</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,7 +5633,9 @@
       <c r="I139" t="n">
         <v>504</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,7 +5674,9 @@
       <c r="I140" t="n">
         <v>506.5</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,7 +5715,9 @@
       <c r="I141" t="n">
         <v>504</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,7 +5756,9 @@
       <c r="I142" t="n">
         <v>504</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,7 +5797,9 @@
       <c r="I143" t="n">
         <v>501.7</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,7 +5838,9 @@
       <c r="I144" t="n">
         <v>500.1</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,7 +5879,9 @@
       <c r="I145" t="n">
         <v>504</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,7 +5920,9 @@
       <c r="I146" t="n">
         <v>504</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,7 +5961,9 @@
       <c r="I147" t="n">
         <v>505</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,7 +6002,9 @@
       <c r="I148" t="n">
         <v>501.2</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,7 +6043,9 @@
       <c r="I149" t="n">
         <v>505</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,7 +6084,9 @@
       <c r="I150" t="n">
         <v>502.2</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,7 +6125,9 @@
       <c r="I151" t="n">
         <v>506</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,7 +6166,9 @@
       <c r="I152" t="n">
         <v>506.9</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,7 +6207,9 @@
       <c r="I153" t="n">
         <v>505.9</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6360,7 +6248,9 @@
       <c r="I154" t="n">
         <v>500.1</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6399,7 +6289,9 @@
       <c r="I155" t="n">
         <v>500.1</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6438,7 +6330,9 @@
       <c r="I156" t="n">
         <v>500.1</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6477,7 +6371,9 @@
       <c r="I157" t="n">
         <v>501.1</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6516,7 +6412,9 @@
       <c r="I158" t="n">
         <v>502.1</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6555,7 +6453,9 @@
       <c r="I159" t="n">
         <v>506</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6594,7 +6494,9 @@
       <c r="I160" t="n">
         <v>509</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6633,7 +6535,9 @@
       <c r="I161" t="n">
         <v>510</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6672,7 +6576,9 @@
       <c r="I162" t="n">
         <v>509</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6711,7 +6617,9 @@
       <c r="I163" t="n">
         <v>511</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6750,7 +6658,9 @@
       <c r="I164" t="n">
         <v>505</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,7 +6699,9 @@
       <c r="I165" t="n">
         <v>506</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6828,7 +6740,9 @@
       <c r="I166" t="n">
         <v>505</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6867,7 +6781,9 @@
       <c r="I167" t="n">
         <v>514</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6906,7 +6822,9 @@
       <c r="I168" t="n">
         <v>498.2</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,7 +6863,9 @@
       <c r="I169" t="n">
         <v>506</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6984,7 +6904,9 @@
       <c r="I170" t="n">
         <v>501.9</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7023,7 +6945,9 @@
       <c r="I171" t="n">
         <v>501.8</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7062,7 +6986,9 @@
       <c r="I172" t="n">
         <v>501</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7101,7 +7027,9 @@
       <c r="I173" t="n">
         <v>501.8</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,7 +7068,9 @@
       <c r="I174" t="n">
         <v>504.7</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7179,7 +7109,9 @@
       <c r="I175" t="n">
         <v>510.7</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,7 +7150,9 @@
       <c r="I176" t="n">
         <v>504.9</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7257,7 +7191,9 @@
       <c r="I177" t="n">
         <v>504.9</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7296,7 +7232,9 @@
       <c r="I178" t="n">
         <v>513</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7335,7 +7273,9 @@
       <c r="I179" t="n">
         <v>513</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7374,7 +7314,9 @@
       <c r="I180" t="n">
         <v>510.3</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,7 +7355,9 @@
       <c r="I181" t="n">
         <v>521.5</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7452,7 +7396,9 @@
       <c r="I182" t="n">
         <v>520.2</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7491,7 +7437,9 @@
       <c r="I183" t="n">
         <v>519.1</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7530,7 +7478,9 @@
       <c r="I184" t="n">
         <v>519.3</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7569,7 +7519,9 @@
       <c r="I185" t="n">
         <v>519.3</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,7 +7560,9 @@
       <c r="I186" t="n">
         <v>517</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7647,7 +7601,9 @@
       <c r="I187" t="n">
         <v>518</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7686,7 +7642,9 @@
       <c r="I188" t="n">
         <v>522</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,12 +7678,12 @@
         <v>-315957.5980290102</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>524</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7764,7 +7722,9 @@
       <c r="I190" t="n">
         <v>519</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,7 +7763,9 @@
       <c r="I191" t="n">
         <v>519.1</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7837,12 +7799,12 @@
         <v>-300638.3675290103</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>524.8</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7876,12 +7838,12 @@
         <v>-291895.5767290103</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>525.3</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,12 +7877,12 @@
         <v>-236122.5345290103</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>527</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7957,7 +7919,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7994,7 +7958,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8031,7 +7997,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8068,7 +8036,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8105,7 +8075,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8142,7 +8114,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8179,7 +8153,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8216,7 +8192,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,7 +8231,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8290,7 +8270,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8327,7 +8309,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8364,7 +8348,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8401,7 +8387,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8438,7 +8426,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8475,7 +8465,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8512,7 +8504,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8549,7 +8543,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8586,7 +8582,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8623,7 +8621,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,7 +8660,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8697,7 +8699,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8734,7 +8738,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8771,7 +8777,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8808,7 +8816,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8845,7 +8855,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8882,7 +8894,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,7 +8933,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,7 +8972,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8993,7 +9011,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,7 +9050,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,7 +9089,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,7 +9128,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9141,7 +9167,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9178,7 +9206,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9215,7 +9245,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9252,7 +9284,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9289,7 +9323,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9326,7 +9362,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9363,7 +9401,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9400,7 +9440,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9437,7 +9479,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9474,7 +9518,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9511,7 +9557,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9548,7 +9596,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9585,7 +9635,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9622,7 +9674,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9659,7 +9713,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9696,7 +9752,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9733,7 +9791,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,7 +9830,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9869,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9844,7 +9908,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9881,7 +9947,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9918,7 +9986,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9955,7 +10025,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9992,7 +10064,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10029,7 +10103,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10066,7 +10142,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,7 +10181,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10140,7 +10220,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10177,7 +10259,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10214,7 +10298,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10251,7 +10337,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10288,7 +10376,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10325,7 +10415,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10362,7 +10454,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,7 +10493,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10436,7 +10532,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10473,7 +10571,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10510,7 +10610,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10547,7 +10649,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10584,7 +10688,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,7 +10727,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10658,7 +10766,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10695,7 +10805,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10732,7 +10844,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10769,7 +10883,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10806,7 +10922,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10843,7 +10961,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10880,7 +11000,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10917,7 +11039,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10954,7 +11078,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10991,7 +11117,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11028,7 +11156,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11065,7 +11195,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11102,7 +11234,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11139,7 +11273,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11176,7 +11312,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11213,7 +11351,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11250,7 +11390,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11287,7 +11429,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11324,7 +11468,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11361,7 +11507,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11395,19 +11543,23 @@
         <v>837934.0612963297</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>495.1</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+        <v>1.352301555241366</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1.046376811594203</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11432,15 +11584,11 @@
         <v>885197.9559630797</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11469,15 +11617,11 @@
         <v>921161.9735173297</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11506,15 +11650,11 @@
         <v>905378.1089715797</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11543,15 +11683,11 @@
         <v>875149.8983098497</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11580,15 +11716,11 @@
         <v>817180.3723098497</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11617,15 +11749,11 @@
         <v>839601.2417098497</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11654,15 +11782,11 @@
         <v>831577.3176098497</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11691,15 +11815,11 @@
         <v>831577.3176098497</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11732,11 +11852,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11769,11 +11885,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11806,11 +11918,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11843,11 +11951,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11876,15 +11980,11 @@
         <v>808472.4913615098</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11917,11 +12017,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11954,11 +12050,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11987,15 +12079,11 @@
         <v>778428.4936941598</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12024,15 +12112,11 @@
         <v>740238.8509517798</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12065,11 +12149,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12102,11 +12182,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12139,11 +12215,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12176,11 +12248,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12213,11 +12281,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12250,11 +12314,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12287,11 +12347,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12324,11 +12380,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12361,11 +12413,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12398,11 +12446,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12435,11 +12479,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12472,11 +12512,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12509,11 +12545,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12546,11 +12578,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12583,11 +12611,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12620,11 +12644,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12657,11 +12677,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12710,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12727,15 +12739,11 @@
         <v>885148.0908181497</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12764,15 +12772,11 @@
         <v>832360.8504458697</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12801,15 +12805,11 @@
         <v>838720.6414458697</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12838,15 +12838,11 @@
         <v>891033.6685609297</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12879,11 +12875,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12916,11 +12908,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12953,11 +12941,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12986,15 +12970,11 @@
         <v>1163353.10116679</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13023,15 +13003,11 @@
         <v>1046302.50671954</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13060,15 +13036,11 @@
         <v>1126291.96062443</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13097,15 +13069,11 @@
         <v>1270444.23368699</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13134,15 +13102,11 @@
         <v>1393774.05058772</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13171,15 +13135,11 @@
         <v>1493682.79878854</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13208,15 +13168,11 @@
         <v>1668600.66757033</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13245,15 +13201,11 @@
         <v>1596005.79357033</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13286,11 +13238,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13323,11 +13271,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13360,11 +13304,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13397,11 +13337,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13434,11 +13370,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13471,11 +13403,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13508,11 +13436,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13545,11 +13469,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13582,11 +13502,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13619,11 +13535,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13656,11 +13568,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13693,11 +13601,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13730,11 +13634,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13767,11 +13667,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13804,11 +13700,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13841,11 +13733,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13878,11 +13766,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +13799,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13952,11 +13832,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13989,11 +13865,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14026,11 +13898,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14063,11 +13931,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14096,15 +13960,11 @@
         <v>1720563.671813859</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14133,15 +13993,11 @@
         <v>1681281.958418009</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14174,11 +14030,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14211,11 +14063,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14244,16 +14092,14 @@
         <v>1570736.625372599</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
       <c r="M365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -14279,7 +14125,7 @@
         <v>1537312.121644629</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -14345,7 +14191,7 @@
         <v>1622991.913024779</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14378,7 +14224,7 @@
         <v>1638621.823974259</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14411,7 +14257,7 @@
         <v>1581829.443874259</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14444,7 +14290,7 @@
         <v>1551977.45837426</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14642,7 +14488,7 @@
         <v>1560154.555278489</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14675,7 +14521,7 @@
         <v>1592126.078099989</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -16127,7 +15973,7 @@
         <v>1987707.89243712</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16160,7 +16006,7 @@
         <v>1997973.73093065</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16193,7 +16039,7 @@
         <v>1976485.82801479</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16226,7 +16072,7 @@
         <v>1948800.80540289</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16259,7 +16105,7 @@
         <v>1956185.77670289</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16325,7 +16171,7 @@
         <v>1920814.34574259</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16358,7 +16204,7 @@
         <v>1889701.69396506</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16391,7 +16237,7 @@
         <v>1876279.73953672</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16424,7 +16270,7 @@
         <v>1901682.37557763</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16457,7 +16303,7 @@
         <v>1893283.67707763</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16490,7 +16336,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16523,7 +16369,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16556,7 +16402,7 @@
         <v>1906123.99644996</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16589,7 +16435,7 @@
         <v>1901730.55724996</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16721,7 +16567,7 @@
         <v>1874549.81524996</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16754,7 +16600,7 @@
         <v>1879435.77022272</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16787,7 +16633,7 @@
         <v>1896801.61002272</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16820,7 +16666,7 @@
         <v>1910078.56143983</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16853,7 +16699,7 @@
         <v>1919283.78070206</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17084,7 +16930,7 @@
         <v>1888646.85138891</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17282,7 +17128,7 @@
         <v>1903669.53316218</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17348,7 +17194,7 @@
         <v>1901379.54029817</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17381,7 +17227,7 @@
         <v>1872394.42089817</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17414,7 +17260,7 @@
         <v>1888132.87673669</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17447,7 +17293,7 @@
         <v>1869837.34573669</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17480,7 +17326,7 @@
         <v>1877247.50923669</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17513,7 +17359,7 @@
         <v>1860142.06753669</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17546,7 +17392,7 @@
         <v>1865250.69399245</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17579,7 +17425,7 @@
         <v>1865702.21139245</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17612,7 +17458,7 @@
         <v>1859663.20196343</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -25268,7 +25114,7 @@
         <v>1906702.06716557</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25301,7 +25147,7 @@
         <v>1904736.3802045</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25598,7 +25444,7 @@
         <v>1976112.04032368</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25631,7 +25477,7 @@
         <v>1991792.41937121</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25664,7 +25510,7 @@
         <v>2019070.82632368</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25697,7 +25543,7 @@
         <v>2025864.82552368</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25730,7 +25576,7 @@
         <v>2049656.94908465</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25763,7 +25609,7 @@
         <v>2079680.8295352</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25796,7 +25642,7 @@
         <v>2064983.96301198</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25829,7 +25675,7 @@
         <v>2035848.35735858</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25862,7 +25708,7 @@
         <v>2048164.39325858</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25895,7 +25741,7 @@
         <v>2019477.76076426</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25928,7 +25774,7 @@
         <v>2013896.18513724</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25961,7 +25807,7 @@
         <v>1999151.57232668</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25994,7 +25840,7 @@
         <v>1994094.22165952</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26027,7 +25873,7 @@
         <v>2007532.76016787</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26060,7 +25906,7 @@
         <v>1992382.05117358</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26093,7 +25939,7 @@
         <v>1973439.21237358</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -32132,7 +31978,7 @@
         <v>1826552.434324689</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32165,7 +32011,7 @@
         <v>1836859.1959273</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32198,7 +32044,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32231,7 +32077,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32264,7 +32110,7 @@
         <v>1838429.390227299</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32297,7 +32143,7 @@
         <v>1846220.216956449</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32330,7 +32176,7 @@
         <v>1862670.93027783</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32363,7 +32209,7 @@
         <v>1875862.219377829</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32396,7 +32242,7 @@
         <v>1901760.601277829</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32429,7 +32275,7 @@
         <v>1885086.418976369</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32462,7 +32308,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32495,7 +32341,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32528,7 +32374,7 @@
         <v>1935319.842974909</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32561,7 +32407,7 @@
         <v>1963566.890363389</v>
       </c>
       <c r="H920" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32594,7 +32440,7 @@
         <v>1951187.486473319</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32627,7 +32473,7 @@
         <v>1943258.024144159</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32660,7 +32506,7 @@
         <v>1903700.322544159</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32693,7 +32539,7 @@
         <v>1920589.940544159</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32726,7 +32572,7 @@
         <v>1909122.004744159</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32759,7 +32605,7 @@
         <v>1905827.002344159</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32792,7 +32638,7 @@
         <v>1886840.589246769</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32825,7 +32671,7 @@
         <v>1876324.101846769</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32858,7 +32704,7 @@
         <v>1850083.727046769</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32891,7 +32737,7 @@
         <v>1835120.260646769</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32924,7 +32770,7 @@
         <v>1845530.198546769</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32957,7 +32803,7 @@
         <v>1847653.696546769</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32990,7 +32836,7 @@
         <v>1853607.677946769</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33023,7 +32869,7 @@
         <v>1861485.088946769</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33056,7 +32902,7 @@
         <v>1870930.361249379</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -33089,7 +32935,7 @@
         <v>1863712.799149379</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33122,7 +32968,7 @@
         <v>1860093.235549379</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
@@ -36290,7 +36136,7 @@
         <v>2312642.007852569</v>
       </c>
       <c r="H1033" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
       <c r="J1033" t="inlineStr"/>
@@ -36323,7 +36169,7 @@
         <v>2504572.287802759</v>
       </c>
       <c r="H1034" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
       <c r="J1034" t="inlineStr"/>
@@ -36356,7 +36202,7 @@
         <v>2504572.287802759</v>
       </c>
       <c r="H1035" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
       <c r="J1035" t="inlineStr"/>
@@ -36389,7 +36235,7 @@
         <v>2420828.471047229</v>
       </c>
       <c r="H1036" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
       <c r="J1036" t="inlineStr"/>
@@ -36422,7 +36268,7 @@
         <v>2453846.922504029</v>
       </c>
       <c r="H1037" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
       <c r="J1037" t="inlineStr"/>
@@ -36455,7 +36301,7 @@
         <v>2429133.754301849</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -36488,7 +36334,7 @@
         <v>2380428.934166459</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -36521,7 +36367,7 @@
         <v>2411318.342257719</v>
       </c>
       <c r="H1040" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
       <c r="J1040" t="inlineStr"/>
@@ -36554,7 +36400,7 @@
         <v>2393996.181957719</v>
       </c>
       <c r="H1041" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
       <c r="J1041" t="inlineStr"/>
@@ -36587,7 +36433,7 @@
         <v>2410201.57137398</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -36620,7 +36466,7 @@
         <v>2392206.262499759</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -36653,7 +36499,7 @@
         <v>2405505.36739976</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -36686,7 +36532,7 @@
         <v>2420271.844272499</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -36719,7 +36565,7 @@
         <v>2416700.622572499</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -36752,7 +36598,7 @@
         <v>2402908.1679725</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -36785,7 +36631,7 @@
         <v>2413393.2098725</v>
       </c>
       <c r="H1048" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
@@ -36818,7 +36664,7 @@
         <v>2395783.75971387</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -36851,7 +36697,7 @@
         <v>2384871.394913869</v>
       </c>
       <c r="H1050" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
@@ -36884,7 +36730,7 @@
         <v>2358351.583513869</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -36917,7 +36763,7 @@
         <v>2390995.546913869</v>
       </c>
       <c r="H1052" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
@@ -36950,7 +36796,7 @@
         <v>2374061.221913869</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -36983,7 +36829,7 @@
         <v>2387884.951669459</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -37016,7 +36862,7 @@
         <v>2372630.458849249</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -37049,7 +36895,7 @@
         <v>2359902.813771499</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -37082,7 +36928,7 @@
         <v>2338580.455035479</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -37115,7 +36961,7 @@
         <v>2352757.248535479</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -37148,7 +36994,7 @@
         <v>2352284.558835479</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -37181,7 +37027,7 @@
         <v>2363209.26741835</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -37214,7 +37060,7 @@
         <v>2349453.14221835</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -37247,7 +37093,7 @@
         <v>2329030.03821835</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -37280,7 +37126,7 @@
         <v>2325497.30771835</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -37313,7 +37159,7 @@
         <v>2299955.23451835</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -37346,7 +37192,7 @@
         <v>2304107.222018349</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -37379,7 +37225,7 @@
         <v>2291138.620918349</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -37412,7 +37258,7 @@
         <v>2265747.927418349</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -37445,7 +37291,7 @@
         <v>2276587.391202049</v>
       </c>
       <c r="H1068" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
@@ -37478,7 +37324,7 @@
         <v>2261971.396402049</v>
       </c>
       <c r="H1069" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
@@ -37511,7 +37357,7 @@
         <v>2293484.29130205</v>
       </c>
       <c r="H1070" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
@@ -37544,7 +37390,7 @@
         <v>2305018.475302049</v>
       </c>
       <c r="H1071" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
@@ -37577,7 +37423,7 @@
         <v>2295312.094102049</v>
       </c>
       <c r="H1072" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
@@ -37610,7 +37456,7 @@
         <v>2310383.495902049</v>
       </c>
       <c r="H1073" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
@@ -37643,7 +37489,7 @@
         <v>2312992.912602049</v>
       </c>
       <c r="H1074" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
@@ -37676,7 +37522,7 @@
         <v>2319305.268102049</v>
       </c>
       <c r="H1075" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
@@ -37709,7 +37555,7 @@
         <v>2330022.664657869</v>
       </c>
       <c r="H1076" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
@@ -37742,7 +37588,7 @@
         <v>2345927.485802049</v>
       </c>
       <c r="H1077" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
@@ -37775,7 +37621,7 @@
         <v>2353823.406314039</v>
       </c>
       <c r="H1078" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
@@ -37808,7 +37654,7 @@
         <v>2369819.662714039</v>
       </c>
       <c r="H1079" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
@@ -37841,7 +37687,7 @@
         <v>2397512.453426869</v>
       </c>
       <c r="H1080" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
       <c r="J1080" t="inlineStr"/>
@@ -37874,7 +37720,7 @@
         <v>2382413.540026869</v>
       </c>
       <c r="H1081" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
       <c r="J1081" t="inlineStr"/>
@@ -37907,7 +37753,7 @@
         <v>2396399.540026869</v>
       </c>
       <c r="H1082" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
       <c r="J1082" t="inlineStr"/>
@@ -37940,7 +37786,7 @@
         <v>2422900.981626869</v>
       </c>
       <c r="H1083" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
       <c r="J1083" t="inlineStr"/>
@@ -37973,7 +37819,7 @@
         <v>2443691.507526869</v>
       </c>
       <c r="H1084" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
@@ -38006,7 +37852,7 @@
         <v>2430289.233220289</v>
       </c>
       <c r="H1085" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
@@ -38039,7 +37885,7 @@
         <v>2486888.274445989</v>
       </c>
       <c r="H1086" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
@@ -38072,7 +37918,7 @@
         <v>2467428.983077179</v>
       </c>
       <c r="H1087" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
@@ -38105,7 +37951,7 @@
         <v>2483510.256636899</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="inlineStr"/>
@@ -38138,7 +37984,7 @@
         <v>2465801.826108499</v>
       </c>
       <c r="H1089" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="inlineStr"/>
@@ -38171,7 +38017,7 @@
         <v>2459502.005008499</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="inlineStr"/>
@@ -38204,7 +38050,7 @@
         <v>2435015.136495349</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="inlineStr"/>
@@ -38237,7 +38083,7 @@
         <v>2428662.748202979</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="inlineStr"/>
@@ -38270,7 +38116,7 @@
         <v>2432987.615202979</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38303,7 +38149,7 @@
         <v>2424160.370302979</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="inlineStr"/>
@@ -38336,7 +38182,7 @@
         <v>2414563.927299699</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38369,7 +38215,7 @@
         <v>2418795.846399699</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38402,7 +38248,7 @@
         <v>2420528.418199699</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38435,7 +38281,7 @@
         <v>2422412.4158997</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38468,7 +38314,7 @@
         <v>2422412.4158997</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38501,7 +38347,7 @@
         <v>2428806.9335997</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="inlineStr"/>
@@ -38534,7 +38380,7 @@
         <v>2434171.8918997</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="inlineStr"/>
@@ -38567,7 +38413,7 @@
         <v>2432988.4115997</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="inlineStr"/>
@@ -38600,7 +38446,7 @@
         <v>2442978.8996997</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="inlineStr"/>
@@ -38633,7 +38479,7 @@
         <v>2434613.3195997</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="inlineStr"/>
@@ -38666,7 +38512,7 @@
         <v>2434613.3195997</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="inlineStr"/>
@@ -38699,7 +38545,7 @@
         <v>2441459.8474997</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38732,7 +38578,7 @@
         <v>2440238.3926997</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38765,7 +38611,7 @@
         <v>2445499.5079638</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38798,7 +38644,7 @@
         <v>2443038.8549638</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38831,7 +38677,7 @@
         <v>2451595.873375271</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38864,7 +38710,7 @@
         <v>2450516.85587527</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38897,7 +38743,7 @@
         <v>2458706.925139591</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38930,7 +38776,7 @@
         <v>2458352.841739591</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -38963,7 +38809,7 @@
         <v>2451370.091610291</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -38996,7 +38842,7 @@
         <v>2447437.574010291</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39029,7 +38875,7 @@
         <v>2429654.109610291</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39062,7 +38908,7 @@
         <v>2429654.109610291</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39293,7 +39139,7 @@
         <v>2431333.03263344</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39326,7 +39172,7 @@
         <v>2430955.41163344</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39359,7 +39205,7 @@
         <v>2430955.41163344</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39392,7 +39238,7 @@
         <v>2430955.41163344</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39425,7 +39271,7 @@
         <v>2430902.83653344</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39458,7 +39304,7 @@
         <v>2428913.89811637</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39491,7 +39337,7 @@
         <v>2428913.89811637</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39524,7 +39370,7 @@
         <v>2420985.53681637</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39557,7 +39403,7 @@
         <v>2409904.70021637</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39590,7 +39436,7 @@
         <v>2402434.96981637</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39623,7 +39469,7 @@
         <v>2402434.96981637</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39656,7 +39502,7 @@
         <v>2398394.84111637</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39689,7 +39535,7 @@
         <v>2395291.02891637</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39722,7 +39568,7 @@
         <v>2389430.96781637</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39755,7 +39601,7 @@
         <v>2392433.81561637</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39788,7 +39634,7 @@
         <v>2389977.72311637</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39821,7 +39667,7 @@
         <v>2385737.62577084</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39854,7 +39700,7 @@
         <v>2390874.10532531</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39887,7 +39733,7 @@
         <v>2389159.854125311</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39920,7 +39766,7 @@
         <v>2379661.264625311</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -39953,7 +39799,7 @@
         <v>2382170.729325311</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -39986,7 +39832,7 @@
         <v>2385013.564425311</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40547,7 +40393,7 @@
         <v>2239623.077822491</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -40580,7 +40426,7 @@
         <v>2252166.233039391</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -40613,7 +40459,7 @@
         <v>2252166.233039391</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -40646,7 +40492,7 @@
         <v>2272235.305600241</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -40679,7 +40525,7 @@
         <v>2260656.154900241</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -40712,7 +40558,7 @@
         <v>2251367.262342451</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -40745,7 +40591,7 @@
         <v>2272374.188242451</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -40778,7 +40624,7 @@
         <v>2275561.157224671</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -40811,7 +40657,7 @@
         <v>2272393.793624671</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -40844,7 +40690,7 @@
         <v>2270774.432558351</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -40877,7 +40723,7 @@
         <v>2270774.432558351</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -40910,7 +40756,7 @@
         <v>2271958.938491921</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -40943,7 +40789,7 @@
         <v>2275547.367191921</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -40976,7 +40822,7 @@
         <v>2273109.311625692</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -41009,7 +40855,7 @@
         <v>2281906.299259461</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -41042,7 +40888,7 @@
         <v>2281906.299259461</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -41075,7 +40921,7 @@
         <v>2282060.153228402</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -41108,7 +40954,7 @@
         <v>2280530.912818982</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -41185,6 +41031,6 @@
       <c r="M1181" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest BCD.xlsx
+++ b/BackTest/2020-01-16 BackTest BCD.xlsx
@@ -913,11 +913,17 @@
         <v>-165962.02842764</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>497</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +952,17 @@
         <v>-164852.09872764</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>495</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +991,17 @@
         <v>-166182.32192764</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>496</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1030,17 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>492.3</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1069,17 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>492</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1108,17 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>492</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1147,17 @@
         <v>-177991.08752764</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>492</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1186,17 @@
         <v>-177088.29722764</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>492</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1225,17 @@
         <v>-177088.29722764</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>493</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1264,17 @@
         <v>-179797.87502764</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>493</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1303,17 @@
         <v>-179797.87502764</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>490</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1342,17 @@
         <v>-181127.48982764</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>490</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1381,17 @@
         <v>-179484.40332764</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>485.9</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1420,17 @@
         <v>-174546.73875604</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>491.1</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1459,17 @@
         <v>-175100.52490675</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>493</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1498,17 @@
         <v>-173360.78775746</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>491</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1537,17 @@
         <v>-173553.42425746</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>492.9</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1576,17 @@
         <v>-176855.53285746</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>491</v>
+      </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1615,17 @@
         <v>-175256.78880498</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>490</v>
+      </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1654,17 @@
         <v>-175156.78880498</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>492.6</v>
+      </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1693,17 @@
         <v>-175688.86070498</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>495.8</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1732,17 @@
         <v>-175688.86070498</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>493.8</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1771,17 @@
         <v>-175088.86070498</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>493.8</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1810,17 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>495.9</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1849,17 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>497</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1888,17 @@
         <v>-171187.29190498</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>497</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1927,17 @@
         <v>-169771.37460498</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>497</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1966,17 @@
         <v>-168723.81220498</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>499.7</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2005,17 @@
         <v>-168993.11220498</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>502</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2044,17 @@
         <v>-168659.05320498</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>501</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2083,17 @@
         <v>-169175.07160498</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>505.4</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2122,17 @@
         <v>-208441.44850498</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>501</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2161,17 @@
         <v>-228684.01770498</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>493.8</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2204,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2237,17 @@
         <v>-253585.3789049799</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>486.1</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2276,17 @@
         <v>-251263.1955049799</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>483</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2106,10 +2320,12 @@
       <c r="I52" t="n">
         <v>486.4</v>
       </c>
-      <c r="J52" t="n">
-        <v>486.4</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2143,12 +2359,10 @@
       <c r="I53" t="n">
         <v>490.9</v>
       </c>
-      <c r="J53" t="n">
-        <v>486.4</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2184,12 +2398,10 @@
       <c r="I54" t="n">
         <v>492.2</v>
       </c>
-      <c r="J54" t="n">
-        <v>486.4</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2220,11 +2432,17 @@
         <v>-229140.7084049799</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>492.2</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2258,10 +2476,12 @@
       <c r="I56" t="n">
         <v>495.1</v>
       </c>
-      <c r="J56" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2295,12 +2515,10 @@
       <c r="I57" t="n">
         <v>498.7</v>
       </c>
-      <c r="J57" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2336,12 +2554,10 @@
       <c r="I58" t="n">
         <v>498.9</v>
       </c>
-      <c r="J58" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2377,12 +2593,10 @@
       <c r="I59" t="n">
         <v>497</v>
       </c>
-      <c r="J59" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2418,9 +2632,7 @@
       <c r="I60" t="n">
         <v>499.9</v>
       </c>
-      <c r="J60" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2459,9 +2671,7 @@
       <c r="I61" t="n">
         <v>498.9</v>
       </c>
-      <c r="J61" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,9 +2710,7 @@
       <c r="I62" t="n">
         <v>496.2</v>
       </c>
-      <c r="J62" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2541,9 +2749,7 @@
       <c r="I63" t="n">
         <v>500.8</v>
       </c>
-      <c r="J63" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,9 +2788,7 @@
       <c r="I64" t="n">
         <v>498.7</v>
       </c>
-      <c r="J64" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,9 +2827,7 @@
       <c r="I65" t="n">
         <v>499.7</v>
       </c>
-      <c r="J65" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,9 +2866,7 @@
       <c r="I66" t="n">
         <v>499.7</v>
       </c>
-      <c r="J66" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2705,9 +2905,7 @@
       <c r="I67" t="n">
         <v>505.3</v>
       </c>
-      <c r="J67" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2746,9 +2944,7 @@
       <c r="I68" t="n">
         <v>504.3</v>
       </c>
-      <c r="J68" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2787,9 +2983,7 @@
       <c r="I69" t="n">
         <v>514.6</v>
       </c>
-      <c r="J69" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2823,12 +3017,12 @@
         <v>-233331.2080708299</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>514.7</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2862,12 +3056,12 @@
         <v>-231807.2588708299</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>514.7</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2901,12 +3095,12 @@
         <v>-231807.2588708299</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>519</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2943,9 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2979,12 +3171,12 @@
         <v>-237809.6598708299</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>518.9</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3018,12 +3210,12 @@
         <v>-240582.0409708299</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>517.9</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3057,12 +3249,12 @@
         <v>-240981.2277708299</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>517.8</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3099,9 +3291,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3138,9 +3328,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3177,9 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3213,14 +3399,10 @@
         <v>-244566.8573708299</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>513</v>
-      </c>
-      <c r="J80" t="n">
-        <v>495.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3254,12 +3436,12 @@
         <v>-244584.8573708299</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>515.8</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,9 +3480,7 @@
       <c r="I82" t="n">
         <v>512.2</v>
       </c>
-      <c r="J82" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3334,12 +3514,12 @@
         <v>-246090.6766708299</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>495.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>511.2</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3378,9 +3558,7 @@
       <c r="I84" t="n">
         <v>512.6</v>
       </c>
-      <c r="J84" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3419,9 +3597,7 @@
       <c r="I85" t="n">
         <v>509.5</v>
       </c>
-      <c r="J85" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3460,9 +3636,7 @@
       <c r="I86" t="n">
         <v>503</v>
       </c>
-      <c r="J86" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3501,9 +3675,7 @@
       <c r="I87" t="n">
         <v>499.3</v>
       </c>
-      <c r="J87" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3542,9 +3714,7 @@
       <c r="I88" t="n">
         <v>497</v>
       </c>
-      <c r="J88" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3583,9 +3753,7 @@
       <c r="I89" t="n">
         <v>495.2</v>
       </c>
-      <c r="J89" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3624,9 +3792,7 @@
       <c r="I90" t="n">
         <v>492.9</v>
       </c>
-      <c r="J90" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3665,9 +3831,7 @@
       <c r="I91" t="n">
         <v>495.3</v>
       </c>
-      <c r="J91" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3706,9 +3870,7 @@
       <c r="I92" t="n">
         <v>495.5</v>
       </c>
-      <c r="J92" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,9 +3909,7 @@
       <c r="I93" t="n">
         <v>496</v>
       </c>
-      <c r="J93" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,9 +3948,7 @@
       <c r="I94" t="n">
         <v>496</v>
       </c>
-      <c r="J94" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3829,9 +3987,7 @@
       <c r="I95" t="n">
         <v>497.9</v>
       </c>
-      <c r="J95" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3870,9 +4026,7 @@
       <c r="I96" t="n">
         <v>493.7</v>
       </c>
-      <c r="J96" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3911,9 +4065,7 @@
       <c r="I97" t="n">
         <v>493.7</v>
       </c>
-      <c r="J97" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,9 +4104,7 @@
       <c r="I98" t="n">
         <v>495</v>
       </c>
-      <c r="J98" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3993,9 +4143,7 @@
       <c r="I99" t="n">
         <v>493.7</v>
       </c>
-      <c r="J99" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4034,9 +4182,7 @@
       <c r="I100" t="n">
         <v>492.2</v>
       </c>
-      <c r="J100" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4075,9 +4221,7 @@
       <c r="I101" t="n">
         <v>492</v>
       </c>
-      <c r="J101" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,9 +4260,7 @@
       <c r="I102" t="n">
         <v>492</v>
       </c>
-      <c r="J102" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4157,9 +4299,7 @@
       <c r="I103" t="n">
         <v>492.1</v>
       </c>
-      <c r="J103" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,9 +4338,7 @@
       <c r="I104" t="n">
         <v>492.1</v>
       </c>
-      <c r="J104" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4239,9 +4377,7 @@
       <c r="I105" t="n">
         <v>494.9</v>
       </c>
-      <c r="J105" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4280,9 +4416,7 @@
       <c r="I106" t="n">
         <v>496.9</v>
       </c>
-      <c r="J106" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4321,9 +4455,7 @@
       <c r="I107" t="n">
         <v>497</v>
       </c>
-      <c r="J107" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4362,9 +4494,7 @@
       <c r="I108" t="n">
         <v>499.4</v>
       </c>
-      <c r="J108" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,9 +4533,7 @@
       <c r="I109" t="n">
         <v>496.5</v>
       </c>
-      <c r="J109" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,9 +4572,7 @@
       <c r="I110" t="n">
         <v>496.4</v>
       </c>
-      <c r="J110" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,9 +4611,7 @@
       <c r="I111" t="n">
         <v>498</v>
       </c>
-      <c r="J111" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4526,9 +4650,7 @@
       <c r="I112" t="n">
         <v>498</v>
       </c>
-      <c r="J112" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4567,9 +4689,7 @@
       <c r="I113" t="n">
         <v>497</v>
       </c>
-      <c r="J113" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4608,9 +4728,7 @@
       <c r="I114" t="n">
         <v>493.2</v>
       </c>
-      <c r="J114" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4649,9 +4767,7 @@
       <c r="I115" t="n">
         <v>492.1</v>
       </c>
-      <c r="J115" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,9 +4806,7 @@
       <c r="I116" t="n">
         <v>492.1</v>
       </c>
-      <c r="J116" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4731,9 +4845,7 @@
       <c r="I117" t="n">
         <v>492.1</v>
       </c>
-      <c r="J117" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4772,9 +4884,7 @@
       <c r="I118" t="n">
         <v>492.1</v>
       </c>
-      <c r="J118" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4813,9 +4923,7 @@
       <c r="I119" t="n">
         <v>496</v>
       </c>
-      <c r="J119" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4854,9 +4962,7 @@
       <c r="I120" t="n">
         <v>494</v>
       </c>
-      <c r="J120" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,9 +5001,7 @@
       <c r="I121" t="n">
         <v>523.8</v>
       </c>
-      <c r="J121" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4936,9 +5040,7 @@
       <c r="I122" t="n">
         <v>493.2</v>
       </c>
-      <c r="J122" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4977,9 +5079,7 @@
       <c r="I123" t="n">
         <v>492.2</v>
       </c>
-      <c r="J123" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5018,9 +5118,7 @@
       <c r="I124" t="n">
         <v>492.2</v>
       </c>
-      <c r="J124" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5059,9 +5157,7 @@
       <c r="I125" t="n">
         <v>494.3</v>
       </c>
-      <c r="J125" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5100,9 +5196,7 @@
       <c r="I126" t="n">
         <v>494.3</v>
       </c>
-      <c r="J126" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5141,9 +5235,7 @@
       <c r="I127" t="n">
         <v>494.3</v>
       </c>
-      <c r="J127" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5182,9 +5274,7 @@
       <c r="I128" t="n">
         <v>495.3</v>
       </c>
-      <c r="J128" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5223,9 +5313,7 @@
       <c r="I129" t="n">
         <v>495.3</v>
       </c>
-      <c r="J129" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5264,9 +5352,7 @@
       <c r="I130" t="n">
         <v>498.7</v>
       </c>
-      <c r="J130" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5305,9 +5391,7 @@
       <c r="I131" t="n">
         <v>495.3</v>
       </c>
-      <c r="J131" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5346,9 +5430,7 @@
       <c r="I132" t="n">
         <v>499.5</v>
       </c>
-      <c r="J132" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5387,9 +5469,7 @@
       <c r="I133" t="n">
         <v>499</v>
       </c>
-      <c r="J133" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5428,9 +5508,7 @@
       <c r="I134" t="n">
         <v>500.9</v>
       </c>
-      <c r="J134" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5469,9 +5547,7 @@
       <c r="I135" t="n">
         <v>496.5</v>
       </c>
-      <c r="J135" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5510,9 +5586,7 @@
       <c r="I136" t="n">
         <v>497</v>
       </c>
-      <c r="J136" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,9 +5625,7 @@
       <c r="I137" t="n">
         <v>500.1</v>
       </c>
-      <c r="J137" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5592,9 +5664,7 @@
       <c r="I138" t="n">
         <v>500.1</v>
       </c>
-      <c r="J138" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5633,9 +5703,7 @@
       <c r="I139" t="n">
         <v>504</v>
       </c>
-      <c r="J139" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5674,9 +5742,7 @@
       <c r="I140" t="n">
         <v>506.5</v>
       </c>
-      <c r="J140" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,9 +5781,7 @@
       <c r="I141" t="n">
         <v>504</v>
       </c>
-      <c r="J141" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5756,9 +5820,7 @@
       <c r="I142" t="n">
         <v>504</v>
       </c>
-      <c r="J142" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5797,9 +5859,7 @@
       <c r="I143" t="n">
         <v>501.7</v>
       </c>
-      <c r="J143" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5838,9 +5898,7 @@
       <c r="I144" t="n">
         <v>500.1</v>
       </c>
-      <c r="J144" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5879,9 +5937,7 @@
       <c r="I145" t="n">
         <v>504</v>
       </c>
-      <c r="J145" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5920,9 +5976,7 @@
       <c r="I146" t="n">
         <v>504</v>
       </c>
-      <c r="J146" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5961,9 +6015,7 @@
       <c r="I147" t="n">
         <v>505</v>
       </c>
-      <c r="J147" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6002,9 +6054,7 @@
       <c r="I148" t="n">
         <v>501.2</v>
       </c>
-      <c r="J148" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6043,9 +6093,7 @@
       <c r="I149" t="n">
         <v>505</v>
       </c>
-      <c r="J149" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6084,9 +6132,7 @@
       <c r="I150" t="n">
         <v>502.2</v>
       </c>
-      <c r="J150" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,9 +6171,7 @@
       <c r="I151" t="n">
         <v>506</v>
       </c>
-      <c r="J151" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,9 +6210,7 @@
       <c r="I152" t="n">
         <v>506.9</v>
       </c>
-      <c r="J152" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6207,9 +6249,7 @@
       <c r="I153" t="n">
         <v>505.9</v>
       </c>
-      <c r="J153" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6248,9 +6288,7 @@
       <c r="I154" t="n">
         <v>500.1</v>
       </c>
-      <c r="J154" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6289,9 +6327,7 @@
       <c r="I155" t="n">
         <v>500.1</v>
       </c>
-      <c r="J155" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6330,9 +6366,7 @@
       <c r="I156" t="n">
         <v>500.1</v>
       </c>
-      <c r="J156" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6371,9 +6405,7 @@
       <c r="I157" t="n">
         <v>501.1</v>
       </c>
-      <c r="J157" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6412,9 +6444,7 @@
       <c r="I158" t="n">
         <v>502.1</v>
       </c>
-      <c r="J158" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,9 +6483,7 @@
       <c r="I159" t="n">
         <v>506</v>
       </c>
-      <c r="J159" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6494,9 +6522,7 @@
       <c r="I160" t="n">
         <v>509</v>
       </c>
-      <c r="J160" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6535,9 +6561,7 @@
       <c r="I161" t="n">
         <v>510</v>
       </c>
-      <c r="J161" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6576,9 +6600,7 @@
       <c r="I162" t="n">
         <v>509</v>
       </c>
-      <c r="J162" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6617,9 +6639,7 @@
       <c r="I163" t="n">
         <v>511</v>
       </c>
-      <c r="J163" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6658,9 +6678,7 @@
       <c r="I164" t="n">
         <v>505</v>
       </c>
-      <c r="J164" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6699,9 +6717,7 @@
       <c r="I165" t="n">
         <v>506</v>
       </c>
-      <c r="J165" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,9 +6756,7 @@
       <c r="I166" t="n">
         <v>505</v>
       </c>
-      <c r="J166" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6781,9 +6795,7 @@
       <c r="I167" t="n">
         <v>514</v>
       </c>
-      <c r="J167" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6822,9 +6834,7 @@
       <c r="I168" t="n">
         <v>498.2</v>
       </c>
-      <c r="J168" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6863,9 +6873,7 @@
       <c r="I169" t="n">
         <v>506</v>
       </c>
-      <c r="J169" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6904,9 +6912,7 @@
       <c r="I170" t="n">
         <v>501.9</v>
       </c>
-      <c r="J170" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6945,9 +6951,7 @@
       <c r="I171" t="n">
         <v>501.8</v>
       </c>
-      <c r="J171" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6986,9 +6990,7 @@
       <c r="I172" t="n">
         <v>501</v>
       </c>
-      <c r="J172" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7027,9 +7029,7 @@
       <c r="I173" t="n">
         <v>501.8</v>
       </c>
-      <c r="J173" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7068,9 +7068,7 @@
       <c r="I174" t="n">
         <v>504.7</v>
       </c>
-      <c r="J174" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7109,9 +7107,7 @@
       <c r="I175" t="n">
         <v>510.7</v>
       </c>
-      <c r="J175" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7150,9 +7146,7 @@
       <c r="I176" t="n">
         <v>504.9</v>
       </c>
-      <c r="J176" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7191,9 +7185,7 @@
       <c r="I177" t="n">
         <v>504.9</v>
       </c>
-      <c r="J177" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7232,9 +7224,7 @@
       <c r="I178" t="n">
         <v>513</v>
       </c>
-      <c r="J178" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7273,9 +7263,7 @@
       <c r="I179" t="n">
         <v>513</v>
       </c>
-      <c r="J179" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7302,7 @@
       <c r="I180" t="n">
         <v>510.3</v>
       </c>
-      <c r="J180" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7355,9 +7341,7 @@
       <c r="I181" t="n">
         <v>521.5</v>
       </c>
-      <c r="J181" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7396,9 +7380,7 @@
       <c r="I182" t="n">
         <v>520.2</v>
       </c>
-      <c r="J182" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7437,9 +7419,7 @@
       <c r="I183" t="n">
         <v>519.1</v>
       </c>
-      <c r="J183" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,9 +7458,7 @@
       <c r="I184" t="n">
         <v>519.3</v>
       </c>
-      <c r="J184" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7514,14 +7492,10 @@
         <v>-343656.9804837303</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>519.3</v>
-      </c>
-      <c r="J185" t="n">
-        <v>495.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,9 +7534,7 @@
       <c r="I186" t="n">
         <v>517</v>
       </c>
-      <c r="J186" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7596,14 +7568,10 @@
         <v>-336973.6959290102</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>518</v>
-      </c>
-      <c r="J187" t="n">
-        <v>495.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,14 +7605,10 @@
         <v>-313478.4937290102</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>522</v>
-      </c>
-      <c r="J188" t="n">
-        <v>495.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7681,9 +7645,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7717,14 +7679,10 @@
         <v>-313397.9697290102</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>519</v>
-      </c>
-      <c r="J190" t="n">
-        <v>495.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7758,14 +7716,10 @@
         <v>-304037.7215290103</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>519.1</v>
-      </c>
-      <c r="J191" t="n">
-        <v>495.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,9 +7756,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7841,9 +7793,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7880,9 +7830,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,9 +7867,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7958,9 +7904,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,9 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8036,9 +7978,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,9 +8015,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8114,9 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8153,9 +8089,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,9 +8126,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,9 +8163,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8270,9 +8200,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8309,9 +8237,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8348,9 +8274,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8387,9 +8311,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8426,9 +8348,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8465,9 +8385,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8504,9 +8422,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8543,9 +8459,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,9 +8496,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8621,9 +8533,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8660,9 +8570,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8699,9 +8607,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8738,9 +8644,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8777,9 +8681,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8816,9 +8718,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8855,9 +8755,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8894,9 +8792,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8933,9 +8829,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8972,9 +8866,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9011,9 +8903,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9050,9 +8940,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9089,9 +8977,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9128,9 +9014,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9167,9 +9051,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9206,9 +9088,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9245,9 +9125,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9284,9 +9162,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9323,9 +9199,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9362,9 +9236,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,9 +9273,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9440,9 +9310,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9479,9 +9347,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9518,9 +9384,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9557,9 +9421,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9596,9 +9458,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9635,9 +9495,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9674,9 +9532,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9713,9 +9569,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9752,9 +9606,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9791,9 +9643,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9830,9 +9680,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9869,9 +9717,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9908,9 +9754,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9947,9 +9791,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9986,9 +9828,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10025,9 +9865,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10064,9 +9902,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10103,9 +9939,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10142,9 +9976,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10181,9 +10013,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10220,9 +10050,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10259,9 +10087,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10298,9 +10124,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10337,9 +10161,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10376,9 +10198,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,9 +10235,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10454,9 +10272,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10493,9 +10309,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10532,9 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10571,9 +10383,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10610,9 +10420,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10649,9 +10457,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10688,9 +10494,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10727,9 +10531,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10766,9 +10568,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10805,9 +10605,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10844,9 +10642,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10883,9 +10679,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10922,9 +10716,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10961,9 +10753,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11000,9 +10790,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11039,9 +10827,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,9 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11117,9 +10901,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11156,9 +10938,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,9 +10975,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11234,9 +11012,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11273,9 +11049,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11312,9 +11086,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11351,9 +11123,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11390,9 +11160,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11429,9 +11197,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11468,9 +11234,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11507,9 +11271,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>495.1</v>
-      </c>
+      <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11543,2002 +11305,2236 @@
         <v>837934.0612963297</v>
       </c>
       <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>675</v>
+      </c>
+      <c r="C289" t="n">
+        <v>680</v>
+      </c>
+      <c r="D289" t="n">
+        <v>680</v>
+      </c>
+      <c r="E289" t="n">
+        <v>672</v>
+      </c>
+      <c r="F289" t="n">
+        <v>47263.89466675</v>
+      </c>
+      <c r="G289" t="n">
+        <v>885197.9559630797</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>680</v>
+      </c>
+      <c r="C290" t="n">
+        <v>681.5</v>
+      </c>
+      <c r="D290" t="n">
+        <v>690</v>
+      </c>
+      <c r="E290" t="n">
+        <v>679.9</v>
+      </c>
+      <c r="F290" t="n">
+        <v>35964.01755425</v>
+      </c>
+      <c r="G290" t="n">
+        <v>921161.9735173297</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>681.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>679.6</v>
+      </c>
+      <c r="D291" t="n">
+        <v>692</v>
+      </c>
+      <c r="E291" t="n">
+        <v>679.6</v>
+      </c>
+      <c r="F291" t="n">
+        <v>15783.86454575</v>
+      </c>
+      <c r="G291" t="n">
+        <v>905378.1089715797</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>688</v>
+      </c>
+      <c r="C292" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="D292" t="n">
+        <v>688</v>
+      </c>
+      <c r="E292" t="n">
+        <v>670</v>
+      </c>
+      <c r="F292" t="n">
+        <v>30228.21066173</v>
+      </c>
+      <c r="G292" t="n">
+        <v>875149.8983098497</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="C293" t="n">
+        <v>655.7</v>
+      </c>
+      <c r="D293" t="n">
+        <v>671.5</v>
+      </c>
+      <c r="E293" t="n">
+        <v>655.7</v>
+      </c>
+      <c r="F293" t="n">
+        <v>57969.526</v>
+      </c>
+      <c r="G293" t="n">
+        <v>817180.3723098497</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>655.7</v>
+      </c>
+      <c r="C294" t="n">
+        <v>657.6</v>
+      </c>
+      <c r="D294" t="n">
+        <v>661.7</v>
+      </c>
+      <c r="E294" t="n">
+        <v>640.1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>22420.8694</v>
+      </c>
+      <c r="G294" t="n">
+        <v>839601.2417098497</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>657.6</v>
+      </c>
+      <c r="C295" t="n">
+        <v>648</v>
+      </c>
+      <c r="D295" t="n">
+        <v>657.6</v>
+      </c>
+      <c r="E295" t="n">
+        <v>648</v>
+      </c>
+      <c r="F295" t="n">
+        <v>8023.9241</v>
+      </c>
+      <c r="G295" t="n">
+        <v>831577.3176098497</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>648</v>
+      </c>
+      <c r="C296" t="n">
+        <v>648</v>
+      </c>
+      <c r="D296" t="n">
+        <v>649.3</v>
+      </c>
+      <c r="E296" t="n">
+        <v>630</v>
+      </c>
+      <c r="F296" t="n">
+        <v>28290.1463</v>
+      </c>
+      <c r="G296" t="n">
+        <v>831577.3176098497</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>645.8</v>
+      </c>
+      <c r="C297" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="D297" t="n">
+        <v>645.8</v>
+      </c>
+      <c r="E297" t="n">
+        <v>631.1</v>
+      </c>
+      <c r="F297" t="n">
+        <v>13765.5247</v>
+      </c>
+      <c r="G297" t="n">
+        <v>817811.7929098498</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>641.5</v>
+      </c>
+      <c r="C298" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="D298" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="E298" t="n">
+        <v>641.3</v>
+      </c>
+      <c r="F298" t="n">
+        <v>36319.1094</v>
+      </c>
+      <c r="G298" t="n">
+        <v>854130.9023098497</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>659.1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>666.2</v>
+      </c>
+      <c r="D299" t="n">
+        <v>666.2</v>
+      </c>
+      <c r="E299" t="n">
+        <v>659.1</v>
+      </c>
+      <c r="F299" t="n">
+        <v>12668.5178</v>
+      </c>
+      <c r="G299" t="n">
+        <v>866799.4201098498</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>662.6</v>
+      </c>
+      <c r="C300" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="D300" t="n">
+        <v>666.2</v>
+      </c>
+      <c r="E300" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="F300" t="n">
+        <v>44113.57908016</v>
+      </c>
+      <c r="G300" t="n">
+        <v>822685.8410296898</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="C301" t="n">
+        <v>656.9</v>
+      </c>
+      <c r="D301" t="n">
+        <v>659.2</v>
+      </c>
+      <c r="E301" t="n">
+        <v>640</v>
+      </c>
+      <c r="F301" t="n">
+        <v>14213.34966818</v>
+      </c>
+      <c r="G301" t="n">
+        <v>808472.4913615098</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>650.9</v>
+      </c>
+      <c r="C302" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="D302" t="n">
+        <v>651</v>
+      </c>
+      <c r="E302" t="n">
+        <v>644</v>
+      </c>
+      <c r="F302" t="n">
+        <v>14017.41621274</v>
+      </c>
+      <c r="G302" t="n">
+        <v>794455.0751487698</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>649.8</v>
+      </c>
+      <c r="C303" t="n">
+        <v>650.9</v>
+      </c>
+      <c r="D303" t="n">
+        <v>650.9</v>
+      </c>
+      <c r="E303" t="n">
+        <v>644</v>
+      </c>
+      <c r="F303" t="n">
+        <v>17530.02923917</v>
+      </c>
+      <c r="G303" t="n">
+        <v>811985.1043879398</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>650</v>
+      </c>
+      <c r="C304" t="n">
+        <v>644</v>
+      </c>
+      <c r="D304" t="n">
+        <v>650.9</v>
+      </c>
+      <c r="E304" t="n">
+        <v>644</v>
+      </c>
+      <c r="F304" t="n">
+        <v>33556.61069378</v>
+      </c>
+      <c r="G304" t="n">
+        <v>778428.4936941598</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>644</v>
+      </c>
+      <c r="C305" t="n">
+        <v>635.2</v>
+      </c>
+      <c r="D305" t="n">
+        <v>644</v>
+      </c>
+      <c r="E305" t="n">
+        <v>630</v>
+      </c>
+      <c r="F305" t="n">
+        <v>38189.64274238</v>
+      </c>
+      <c r="G305" t="n">
+        <v>740238.8509517798</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>635.2</v>
+      </c>
+      <c r="C306" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="D306" t="n">
+        <v>635.2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="F306" t="n">
+        <v>19303.7071094</v>
+      </c>
+      <c r="G306" t="n">
+        <v>720935.1438423798</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>621.8</v>
+      </c>
+      <c r="C307" t="n">
+        <v>620.1</v>
+      </c>
+      <c r="D307" t="n">
+        <v>621.9</v>
+      </c>
+      <c r="E307" t="n">
+        <v>620</v>
+      </c>
+      <c r="F307" t="n">
+        <v>26250.44916676</v>
+      </c>
+      <c r="G307" t="n">
+        <v>694684.6946756198</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>615.8</v>
+      </c>
+      <c r="C308" t="n">
+        <v>620.1</v>
+      </c>
+      <c r="D308" t="n">
+        <v>625</v>
+      </c>
+      <c r="E308" t="n">
+        <v>609.9</v>
+      </c>
+      <c r="F308" t="n">
+        <v>15873.94926576</v>
+      </c>
+      <c r="G308" t="n">
+        <v>694684.6946756198</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>624</v>
+      </c>
+      <c r="C309" t="n">
+        <v>639</v>
+      </c>
+      <c r="D309" t="n">
+        <v>640</v>
+      </c>
+      <c r="E309" t="n">
+        <v>624</v>
+      </c>
+      <c r="F309" t="n">
+        <v>2562.93542361</v>
+      </c>
+      <c r="G309" t="n">
+        <v>697247.6300992299</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>640</v>
+      </c>
+      <c r="C310" t="n">
+        <v>639.7</v>
+      </c>
+      <c r="D310" t="n">
+        <v>640</v>
+      </c>
+      <c r="E310" t="n">
+        <v>638.7</v>
+      </c>
+      <c r="F310" t="n">
+        <v>8456.5836</v>
+      </c>
+      <c r="G310" t="n">
+        <v>705704.2136992299</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>629.2</v>
+      </c>
+      <c r="C311" t="n">
+        <v>630.3</v>
+      </c>
+      <c r="D311" t="n">
+        <v>651.4</v>
+      </c>
+      <c r="E311" t="n">
+        <v>628</v>
+      </c>
+      <c r="F311" t="n">
+        <v>17750.19732662</v>
+      </c>
+      <c r="G311" t="n">
+        <v>687954.0163726099</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>631.3</v>
+      </c>
+      <c r="C312" t="n">
+        <v>638</v>
+      </c>
+      <c r="D312" t="n">
+        <v>638.8</v>
+      </c>
+      <c r="E312" t="n">
+        <v>631.3</v>
+      </c>
+      <c r="F312" t="n">
+        <v>9852.98960626</v>
+      </c>
+      <c r="G312" t="n">
+        <v>697807.0059788699</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>638.8</v>
+      </c>
+      <c r="C313" t="n">
+        <v>647.8</v>
+      </c>
+      <c r="D313" t="n">
+        <v>649</v>
+      </c>
+      <c r="E313" t="n">
+        <v>636.8</v>
+      </c>
+      <c r="F313" t="n">
+        <v>19666.7496</v>
+      </c>
+      <c r="G313" t="n">
+        <v>717473.7555788698</v>
+      </c>
+      <c r="H313" t="n">
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>647.8</v>
+      </c>
+      <c r="C314" t="n">
+        <v>643</v>
+      </c>
+      <c r="D314" t="n">
+        <v>647.8</v>
+      </c>
+      <c r="E314" t="n">
+        <v>642</v>
+      </c>
+      <c r="F314" t="n">
+        <v>15717.78503648</v>
+      </c>
+      <c r="G314" t="n">
+        <v>701755.9705423898</v>
+      </c>
+      <c r="H314" t="n">
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>643</v>
+      </c>
+      <c r="C315" t="n">
+        <v>644</v>
+      </c>
+      <c r="D315" t="n">
+        <v>644</v>
+      </c>
+      <c r="E315" t="n">
+        <v>643</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10694.45148695</v>
+      </c>
+      <c r="G315" t="n">
+        <v>712450.4220293398</v>
+      </c>
+      <c r="H315" t="n">
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>644</v>
+      </c>
+      <c r="C316" t="n">
+        <v>644</v>
+      </c>
+      <c r="D316" t="n">
+        <v>644</v>
+      </c>
+      <c r="E316" t="n">
+        <v>643.9</v>
+      </c>
+      <c r="F316" t="n">
+        <v>10932.89531305</v>
+      </c>
+      <c r="G316" t="n">
+        <v>712450.4220293398</v>
+      </c>
+      <c r="H316" t="n">
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>645</v>
+      </c>
+      <c r="C317" t="n">
+        <v>657.8</v>
+      </c>
+      <c r="D317" t="n">
+        <v>659.7</v>
+      </c>
+      <c r="E317" t="n">
+        <v>645</v>
+      </c>
+      <c r="F317" t="n">
+        <v>58848.33024838</v>
+      </c>
+      <c r="G317" t="n">
+        <v>771298.7522777198</v>
+      </c>
+      <c r="H317" t="n">
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>659.7</v>
+      </c>
+      <c r="C318" t="n">
+        <v>676.9</v>
+      </c>
+      <c r="D318" t="n">
+        <v>676.9</v>
+      </c>
+      <c r="E318" t="n">
+        <v>658.8</v>
+      </c>
+      <c r="F318" t="n">
+        <v>23653.04497916</v>
+      </c>
+      <c r="G318" t="n">
+        <v>794951.7972568797</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>676.9</v>
+      </c>
+      <c r="C319" t="n">
+        <v>671.7</v>
+      </c>
+      <c r="D319" t="n">
+        <v>680</v>
+      </c>
+      <c r="E319" t="n">
+        <v>663</v>
+      </c>
+      <c r="F319" t="n">
+        <v>64557.94291268</v>
+      </c>
+      <c r="G319" t="n">
+        <v>730393.8543441998</v>
+      </c>
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>671.7</v>
+      </c>
+      <c r="C320" t="n">
+        <v>677</v>
+      </c>
+      <c r="D320" t="n">
+        <v>677</v>
+      </c>
+      <c r="E320" t="n">
+        <v>671.7</v>
+      </c>
+      <c r="F320" t="n">
+        <v>1095.05988732</v>
+      </c>
+      <c r="G320" t="n">
+        <v>731488.9142315198</v>
+      </c>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>677</v>
+      </c>
+      <c r="C321" t="n">
+        <v>690</v>
+      </c>
+      <c r="D321" t="n">
+        <v>690</v>
+      </c>
+      <c r="E321" t="n">
+        <v>676</v>
+      </c>
+      <c r="F321" t="n">
+        <v>92825.36440000001</v>
+      </c>
+      <c r="G321" t="n">
+        <v>824314.2786315198</v>
+      </c>
+      <c r="H321" t="n">
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>690</v>
+      </c>
+      <c r="C322" t="n">
+        <v>719.5</v>
+      </c>
+      <c r="D322" t="n">
+        <v>720</v>
+      </c>
+      <c r="E322" t="n">
+        <v>690</v>
+      </c>
+      <c r="F322" t="n">
+        <v>33855.19478961</v>
+      </c>
+      <c r="G322" t="n">
+        <v>858169.4734211297</v>
+      </c>
+      <c r="H322" t="n">
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>717.3</v>
+      </c>
+      <c r="C323" t="n">
+        <v>720</v>
+      </c>
+      <c r="D323" t="n">
+        <v>722</v>
+      </c>
+      <c r="E323" t="n">
+        <v>699.8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>48303.08937498</v>
+      </c>
+      <c r="G323" t="n">
+        <v>906472.5627961097</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>720</v>
+      </c>
+      <c r="C324" t="n">
+        <v>718.8</v>
+      </c>
+      <c r="D324" t="n">
+        <v>725</v>
+      </c>
+      <c r="E324" t="n">
+        <v>717</v>
+      </c>
+      <c r="F324" t="n">
+        <v>21324.47197796</v>
+      </c>
+      <c r="G324" t="n">
+        <v>885148.0908181497</v>
+      </c>
+      <c r="H324" t="n">
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>722</v>
+      </c>
+      <c r="C325" t="n">
+        <v>709.1</v>
+      </c>
+      <c r="D325" t="n">
+        <v>724.9</v>
+      </c>
+      <c r="E325" t="n">
+        <v>704</v>
+      </c>
+      <c r="F325" t="n">
+        <v>52787.24037228</v>
+      </c>
+      <c r="G325" t="n">
+        <v>832360.8504458697</v>
+      </c>
+      <c r="H325" t="n">
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>709.1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>711</v>
+      </c>
+      <c r="D326" t="n">
+        <v>717.3</v>
+      </c>
+      <c r="E326" t="n">
+        <v>709</v>
+      </c>
+      <c r="F326" t="n">
+        <v>6359.791</v>
+      </c>
+      <c r="G326" t="n">
+        <v>838720.6414458697</v>
+      </c>
+      <c r="H326" t="n">
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>711</v>
+      </c>
+      <c r="C327" t="n">
+        <v>712</v>
+      </c>
+      <c r="D327" t="n">
+        <v>712</v>
+      </c>
+      <c r="E327" t="n">
+        <v>704</v>
+      </c>
+      <c r="F327" t="n">
+        <v>52313.02711506</v>
+      </c>
+      <c r="G327" t="n">
+        <v>891033.6685609297</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>1</v>
+      </c>
+      <c r="M327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>711</v>
+      </c>
+      <c r="C328" t="n">
+        <v>713</v>
+      </c>
+      <c r="D328" t="n">
+        <v>718.8</v>
+      </c>
+      <c r="E328" t="n">
+        <v>708.9</v>
+      </c>
+      <c r="F328" t="n">
+        <v>9280.215484939999</v>
+      </c>
+      <c r="G328" t="n">
+        <v>900313.8840458697</v>
+      </c>
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1</v>
+      </c>
+      <c r="M328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>713</v>
+      </c>
+      <c r="C329" t="n">
+        <v>725</v>
+      </c>
+      <c r="D329" t="n">
+        <v>725</v>
+      </c>
+      <c r="E329" t="n">
+        <v>712.1</v>
+      </c>
+      <c r="F329" t="n">
+        <v>62699.6112</v>
+      </c>
+      <c r="G329" t="n">
+        <v>963013.4952458697</v>
+      </c>
+      <c r="H329" t="n">
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>723.7</v>
+      </c>
+      <c r="C330" t="n">
+        <v>760</v>
+      </c>
+      <c r="D330" t="n">
+        <v>760</v>
+      </c>
+      <c r="E330" t="n">
+        <v>723.7</v>
+      </c>
+      <c r="F330" t="n">
+        <v>99961.78359235</v>
+      </c>
+      <c r="G330" t="n">
+        <v>1062975.27883822</v>
+      </c>
+      <c r="H330" t="n">
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1</v>
+      </c>
+      <c r="M330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>760</v>
+      </c>
+      <c r="C331" t="n">
+        <v>778.7</v>
+      </c>
+      <c r="D331" t="n">
+        <v>788.9</v>
+      </c>
+      <c r="E331" t="n">
+        <v>759.1</v>
+      </c>
+      <c r="F331" t="n">
+        <v>100377.82232857</v>
+      </c>
+      <c r="G331" t="n">
+        <v>1163353.10116679</v>
+      </c>
+      <c r="H331" t="n">
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>1</v>
+      </c>
+      <c r="M331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>785.6</v>
+      </c>
+      <c r="C332" t="n">
+        <v>753.1</v>
+      </c>
+      <c r="D332" t="n">
+        <v>794</v>
+      </c>
+      <c r="E332" t="n">
+        <v>753.1</v>
+      </c>
+      <c r="F332" t="n">
+        <v>117050.59444725</v>
+      </c>
+      <c r="G332" t="n">
+        <v>1046302.50671954</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>1</v>
+      </c>
+      <c r="M332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>757.9</v>
+      </c>
+      <c r="C333" t="n">
+        <v>783.7</v>
+      </c>
+      <c r="D333" t="n">
+        <v>785.9</v>
+      </c>
+      <c r="E333" t="n">
+        <v>754.4</v>
+      </c>
+      <c r="F333" t="n">
+        <v>79989.45390489</v>
+      </c>
+      <c r="G333" t="n">
+        <v>1126291.96062443</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>1</v>
+      </c>
+      <c r="M333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>783.7</v>
+      </c>
+      <c r="C334" t="n">
+        <v>830.9</v>
+      </c>
+      <c r="D334" t="n">
+        <v>840</v>
+      </c>
+      <c r="E334" t="n">
+        <v>782.6</v>
+      </c>
+      <c r="F334" t="n">
+        <v>144152.27306256</v>
+      </c>
+      <c r="G334" t="n">
+        <v>1270444.23368699</v>
+      </c>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1</v>
+      </c>
+      <c r="M334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>830.9</v>
+      </c>
+      <c r="C335" t="n">
+        <v>840</v>
+      </c>
+      <c r="D335" t="n">
+        <v>849.9</v>
+      </c>
+      <c r="E335" t="n">
+        <v>818</v>
+      </c>
+      <c r="F335" t="n">
+        <v>123329.81690073</v>
+      </c>
+      <c r="G335" t="n">
+        <v>1393774.05058772</v>
+      </c>
+      <c r="H335" t="n">
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>840</v>
+      </c>
+      <c r="C336" t="n">
+        <v>850.8</v>
+      </c>
+      <c r="D336" t="n">
+        <v>850.8</v>
+      </c>
+      <c r="E336" t="n">
+        <v>830</v>
+      </c>
+      <c r="F336" t="n">
+        <v>99908.74820082</v>
+      </c>
+      <c r="G336" t="n">
+        <v>1493682.79878854</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>851.7</v>
+      </c>
+      <c r="C337" t="n">
+        <v>872</v>
+      </c>
+      <c r="D337" t="n">
+        <v>888</v>
+      </c>
+      <c r="E337" t="n">
+        <v>851.7</v>
+      </c>
+      <c r="F337" t="n">
+        <v>174917.86878179</v>
+      </c>
+      <c r="G337" t="n">
+        <v>1668600.66757033</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>871</v>
+      </c>
+      <c r="C338" t="n">
+        <v>860.1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>880</v>
+      </c>
+      <c r="E338" t="n">
+        <v>855.1</v>
+      </c>
+      <c r="F338" t="n">
+        <v>72594.874</v>
+      </c>
+      <c r="G338" t="n">
+        <v>1596005.79357033</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>866.5</v>
+      </c>
+      <c r="C339" t="n">
+        <v>868</v>
+      </c>
+      <c r="D339" t="n">
+        <v>879</v>
+      </c>
+      <c r="E339" t="n">
+        <v>860.5</v>
+      </c>
+      <c r="F339" t="n">
+        <v>55958.64705314</v>
+      </c>
+      <c r="G339" t="n">
+        <v>1651964.44062347</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>871</v>
+      </c>
+      <c r="C340" t="n">
+        <v>860</v>
+      </c>
+      <c r="D340" t="n">
+        <v>871</v>
+      </c>
+      <c r="E340" t="n">
+        <v>859.8</v>
+      </c>
+      <c r="F340" t="n">
+        <v>34973.88795355</v>
+      </c>
+      <c r="G340" t="n">
+        <v>1616990.55266992</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>860</v>
+      </c>
+      <c r="C341" t="n">
+        <v>869</v>
+      </c>
+      <c r="D341" t="n">
+        <v>876.8</v>
+      </c>
+      <c r="E341" t="n">
+        <v>860</v>
+      </c>
+      <c r="F341" t="n">
+        <v>22243.42155237</v>
+      </c>
+      <c r="G341" t="n">
+        <v>1639233.97422229</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>869</v>
+      </c>
+      <c r="C342" t="n">
+        <v>860.7</v>
+      </c>
+      <c r="D342" t="n">
+        <v>871</v>
+      </c>
+      <c r="E342" t="n">
+        <v>840</v>
+      </c>
+      <c r="F342" t="n">
+        <v>78686.29532037</v>
+      </c>
+      <c r="G342" t="n">
+        <v>1560547.67890192</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>860.7</v>
+      </c>
+      <c r="C343" t="n">
+        <v>861.5</v>
+      </c>
+      <c r="D343" t="n">
+        <v>863.9</v>
+      </c>
+      <c r="E343" t="n">
+        <v>860</v>
+      </c>
+      <c r="F343" t="n">
+        <v>58452.73001784</v>
+      </c>
+      <c r="G343" t="n">
+        <v>1619000.40891976</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>860</v>
+      </c>
+      <c r="C344" t="n">
+        <v>861.5</v>
+      </c>
+      <c r="D344" t="n">
+        <v>861.5</v>
+      </c>
+      <c r="E344" t="n">
+        <v>843.1</v>
+      </c>
+      <c r="F344" t="n">
+        <v>59462.6677</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1619000.40891976</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>861.4</v>
+      </c>
+      <c r="C345" t="n">
+        <v>870</v>
+      </c>
+      <c r="D345" t="n">
+        <v>876.8</v>
+      </c>
+      <c r="E345" t="n">
+        <v>856.4</v>
+      </c>
+      <c r="F345" t="n">
+        <v>56523.4624635</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1675523.87138326</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>870</v>
+      </c>
+      <c r="C346" t="n">
+        <v>891.1</v>
+      </c>
+      <c r="D346" t="n">
+        <v>898.9</v>
+      </c>
+      <c r="E346" t="n">
+        <v>868.1</v>
+      </c>
+      <c r="F346" t="n">
+        <v>143130.14041542</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1818654.01179868</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>896.6</v>
+      </c>
+      <c r="C347" t="n">
+        <v>919.1</v>
+      </c>
+      <c r="D347" t="n">
+        <v>940</v>
+      </c>
+      <c r="E347" t="n">
+        <v>896.6</v>
+      </c>
+      <c r="F347" t="n">
+        <v>112632.1734546</v>
+      </c>
+      <c r="G347" t="n">
+        <v>1931286.18525328</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>918.9</v>
+      </c>
+      <c r="C348" t="n">
+        <v>928</v>
+      </c>
+      <c r="D348" t="n">
+        <v>929.1</v>
+      </c>
+      <c r="E348" t="n">
+        <v>910</v>
+      </c>
+      <c r="F348" t="n">
+        <v>67163.25885578</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1998449.444109059</v>
+      </c>
+      <c r="H348" t="n">
         <v>2</v>
       </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>495.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L288" t="n">
-        <v>1.352301555241366</v>
-      </c>
-      <c r="M288" t="n">
-        <v>1.046376811594203</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>675</v>
-      </c>
-      <c r="C289" t="n">
-        <v>680</v>
-      </c>
-      <c r="D289" t="n">
-        <v>680</v>
-      </c>
-      <c r="E289" t="n">
-        <v>672</v>
-      </c>
-      <c r="F289" t="n">
-        <v>47263.89466675</v>
-      </c>
-      <c r="G289" t="n">
-        <v>885197.9559630797</v>
-      </c>
-      <c r="H289" t="n">
-        <v>2</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>680</v>
-      </c>
-      <c r="C290" t="n">
-        <v>681.5</v>
-      </c>
-      <c r="D290" t="n">
-        <v>690</v>
-      </c>
-      <c r="E290" t="n">
-        <v>679.9</v>
-      </c>
-      <c r="F290" t="n">
-        <v>35964.01755425</v>
-      </c>
-      <c r="G290" t="n">
-        <v>921161.9735173297</v>
-      </c>
-      <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>681.5</v>
-      </c>
-      <c r="C291" t="n">
-        <v>679.6</v>
-      </c>
-      <c r="D291" t="n">
-        <v>692</v>
-      </c>
-      <c r="E291" t="n">
-        <v>679.6</v>
-      </c>
-      <c r="F291" t="n">
-        <v>15783.86454575</v>
-      </c>
-      <c r="G291" t="n">
-        <v>905378.1089715797</v>
-      </c>
-      <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>688</v>
-      </c>
-      <c r="C292" t="n">
-        <v>670.5</v>
-      </c>
-      <c r="D292" t="n">
-        <v>688</v>
-      </c>
-      <c r="E292" t="n">
-        <v>670</v>
-      </c>
-      <c r="F292" t="n">
-        <v>30228.21066173</v>
-      </c>
-      <c r="G292" t="n">
-        <v>875149.8983098497</v>
-      </c>
-      <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>670.5</v>
-      </c>
-      <c r="C293" t="n">
-        <v>655.7</v>
-      </c>
-      <c r="D293" t="n">
-        <v>671.5</v>
-      </c>
-      <c r="E293" t="n">
-        <v>655.7</v>
-      </c>
-      <c r="F293" t="n">
-        <v>57969.526</v>
-      </c>
-      <c r="G293" t="n">
-        <v>817180.3723098497</v>
-      </c>
-      <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>655.7</v>
-      </c>
-      <c r="C294" t="n">
-        <v>657.6</v>
-      </c>
-      <c r="D294" t="n">
-        <v>661.7</v>
-      </c>
-      <c r="E294" t="n">
-        <v>640.1</v>
-      </c>
-      <c r="F294" t="n">
-        <v>22420.8694</v>
-      </c>
-      <c r="G294" t="n">
-        <v>839601.2417098497</v>
-      </c>
-      <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>657.6</v>
-      </c>
-      <c r="C295" t="n">
-        <v>648</v>
-      </c>
-      <c r="D295" t="n">
-        <v>657.6</v>
-      </c>
-      <c r="E295" t="n">
-        <v>648</v>
-      </c>
-      <c r="F295" t="n">
-        <v>8023.9241</v>
-      </c>
-      <c r="G295" t="n">
-        <v>831577.3176098497</v>
-      </c>
-      <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>648</v>
-      </c>
-      <c r="C296" t="n">
-        <v>648</v>
-      </c>
-      <c r="D296" t="n">
-        <v>649.3</v>
-      </c>
-      <c r="E296" t="n">
-        <v>630</v>
-      </c>
-      <c r="F296" t="n">
-        <v>28290.1463</v>
-      </c>
-      <c r="G296" t="n">
-        <v>831577.3176098497</v>
-      </c>
-      <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>645.8</v>
-      </c>
-      <c r="C297" t="n">
-        <v>641.5</v>
-      </c>
-      <c r="D297" t="n">
-        <v>645.8</v>
-      </c>
-      <c r="E297" t="n">
-        <v>631.1</v>
-      </c>
-      <c r="F297" t="n">
-        <v>13765.5247</v>
-      </c>
-      <c r="G297" t="n">
-        <v>817811.7929098498</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>641.5</v>
-      </c>
-      <c r="C298" t="n">
-        <v>659.2</v>
-      </c>
-      <c r="D298" t="n">
-        <v>659.2</v>
-      </c>
-      <c r="E298" t="n">
-        <v>641.3</v>
-      </c>
-      <c r="F298" t="n">
-        <v>36319.1094</v>
-      </c>
-      <c r="G298" t="n">
-        <v>854130.9023098497</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>659.1</v>
-      </c>
-      <c r="C299" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="D299" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="E299" t="n">
-        <v>659.1</v>
-      </c>
-      <c r="F299" t="n">
-        <v>12668.5178</v>
-      </c>
-      <c r="G299" t="n">
-        <v>866799.4201098498</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>662.6</v>
-      </c>
-      <c r="C300" t="n">
-        <v>659.2</v>
-      </c>
-      <c r="D300" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="E300" t="n">
-        <v>659.2</v>
-      </c>
-      <c r="F300" t="n">
-        <v>44113.57908016</v>
-      </c>
-      <c r="G300" t="n">
-        <v>822685.8410296898</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>659.2</v>
-      </c>
-      <c r="C301" t="n">
-        <v>656.9</v>
-      </c>
-      <c r="D301" t="n">
-        <v>659.2</v>
-      </c>
-      <c r="E301" t="n">
-        <v>640</v>
-      </c>
-      <c r="F301" t="n">
-        <v>14213.34966818</v>
-      </c>
-      <c r="G301" t="n">
-        <v>808472.4913615098</v>
-      </c>
-      <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>650.9</v>
-      </c>
-      <c r="C302" t="n">
-        <v>649.8</v>
-      </c>
-      <c r="D302" t="n">
-        <v>651</v>
-      </c>
-      <c r="E302" t="n">
-        <v>644</v>
-      </c>
-      <c r="F302" t="n">
-        <v>14017.41621274</v>
-      </c>
-      <c r="G302" t="n">
-        <v>794455.0751487698</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>649.8</v>
-      </c>
-      <c r="C303" t="n">
-        <v>650.9</v>
-      </c>
-      <c r="D303" t="n">
-        <v>650.9</v>
-      </c>
-      <c r="E303" t="n">
-        <v>644</v>
-      </c>
-      <c r="F303" t="n">
-        <v>17530.02923917</v>
-      </c>
-      <c r="G303" t="n">
-        <v>811985.1043879398</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>650</v>
-      </c>
-      <c r="C304" t="n">
-        <v>644</v>
-      </c>
-      <c r="D304" t="n">
-        <v>650.9</v>
-      </c>
-      <c r="E304" t="n">
-        <v>644</v>
-      </c>
-      <c r="F304" t="n">
-        <v>33556.61069378</v>
-      </c>
-      <c r="G304" t="n">
-        <v>778428.4936941598</v>
-      </c>
-      <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>644</v>
-      </c>
-      <c r="C305" t="n">
-        <v>635.2</v>
-      </c>
-      <c r="D305" t="n">
-        <v>644</v>
-      </c>
-      <c r="E305" t="n">
-        <v>630</v>
-      </c>
-      <c r="F305" t="n">
-        <v>38189.64274238</v>
-      </c>
-      <c r="G305" t="n">
-        <v>740238.8509517798</v>
-      </c>
-      <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>635.2</v>
-      </c>
-      <c r="C306" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="D306" t="n">
-        <v>635.2</v>
-      </c>
-      <c r="E306" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="F306" t="n">
-        <v>19303.7071094</v>
-      </c>
-      <c r="G306" t="n">
-        <v>720935.1438423798</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>621.8</v>
-      </c>
-      <c r="C307" t="n">
-        <v>620.1</v>
-      </c>
-      <c r="D307" t="n">
-        <v>621.9</v>
-      </c>
-      <c r="E307" t="n">
-        <v>620</v>
-      </c>
-      <c r="F307" t="n">
-        <v>26250.44916676</v>
-      </c>
-      <c r="G307" t="n">
-        <v>694684.6946756198</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>615.8</v>
-      </c>
-      <c r="C308" t="n">
-        <v>620.1</v>
-      </c>
-      <c r="D308" t="n">
-        <v>625</v>
-      </c>
-      <c r="E308" t="n">
-        <v>609.9</v>
-      </c>
-      <c r="F308" t="n">
-        <v>15873.94926576</v>
-      </c>
-      <c r="G308" t="n">
-        <v>694684.6946756198</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>624</v>
-      </c>
-      <c r="C309" t="n">
-        <v>639</v>
-      </c>
-      <c r="D309" t="n">
-        <v>640</v>
-      </c>
-      <c r="E309" t="n">
-        <v>624</v>
-      </c>
-      <c r="F309" t="n">
-        <v>2562.93542361</v>
-      </c>
-      <c r="G309" t="n">
-        <v>697247.6300992299</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>640</v>
-      </c>
-      <c r="C310" t="n">
-        <v>639.7</v>
-      </c>
-      <c r="D310" t="n">
-        <v>640</v>
-      </c>
-      <c r="E310" t="n">
-        <v>638.7</v>
-      </c>
-      <c r="F310" t="n">
-        <v>8456.5836</v>
-      </c>
-      <c r="G310" t="n">
-        <v>705704.2136992299</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>629.2</v>
-      </c>
-      <c r="C311" t="n">
-        <v>630.3</v>
-      </c>
-      <c r="D311" t="n">
-        <v>651.4</v>
-      </c>
-      <c r="E311" t="n">
-        <v>628</v>
-      </c>
-      <c r="F311" t="n">
-        <v>17750.19732662</v>
-      </c>
-      <c r="G311" t="n">
-        <v>687954.0163726099</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>631.3</v>
-      </c>
-      <c r="C312" t="n">
-        <v>638</v>
-      </c>
-      <c r="D312" t="n">
-        <v>638.8</v>
-      </c>
-      <c r="E312" t="n">
-        <v>631.3</v>
-      </c>
-      <c r="F312" t="n">
-        <v>9852.98960626</v>
-      </c>
-      <c r="G312" t="n">
-        <v>697807.0059788699</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>638.8</v>
-      </c>
-      <c r="C313" t="n">
-        <v>647.8</v>
-      </c>
-      <c r="D313" t="n">
-        <v>649</v>
-      </c>
-      <c r="E313" t="n">
-        <v>636.8</v>
-      </c>
-      <c r="F313" t="n">
-        <v>19666.7496</v>
-      </c>
-      <c r="G313" t="n">
-        <v>717473.7555788698</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>647.8</v>
-      </c>
-      <c r="C314" t="n">
-        <v>643</v>
-      </c>
-      <c r="D314" t="n">
-        <v>647.8</v>
-      </c>
-      <c r="E314" t="n">
-        <v>642</v>
-      </c>
-      <c r="F314" t="n">
-        <v>15717.78503648</v>
-      </c>
-      <c r="G314" t="n">
-        <v>701755.9705423898</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>643</v>
-      </c>
-      <c r="C315" t="n">
-        <v>644</v>
-      </c>
-      <c r="D315" t="n">
-        <v>644</v>
-      </c>
-      <c r="E315" t="n">
-        <v>643</v>
-      </c>
-      <c r="F315" t="n">
-        <v>10694.45148695</v>
-      </c>
-      <c r="G315" t="n">
-        <v>712450.4220293398</v>
-      </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>644</v>
-      </c>
-      <c r="C316" t="n">
-        <v>644</v>
-      </c>
-      <c r="D316" t="n">
-        <v>644</v>
-      </c>
-      <c r="E316" t="n">
-        <v>643.9</v>
-      </c>
-      <c r="F316" t="n">
-        <v>10932.89531305</v>
-      </c>
-      <c r="G316" t="n">
-        <v>712450.4220293398</v>
-      </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>645</v>
-      </c>
-      <c r="C317" t="n">
-        <v>657.8</v>
-      </c>
-      <c r="D317" t="n">
-        <v>659.7</v>
-      </c>
-      <c r="E317" t="n">
-        <v>645</v>
-      </c>
-      <c r="F317" t="n">
-        <v>58848.33024838</v>
-      </c>
-      <c r="G317" t="n">
-        <v>771298.7522777198</v>
-      </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>659.7</v>
-      </c>
-      <c r="C318" t="n">
-        <v>676.9</v>
-      </c>
-      <c r="D318" t="n">
-        <v>676.9</v>
-      </c>
-      <c r="E318" t="n">
-        <v>658.8</v>
-      </c>
-      <c r="F318" t="n">
-        <v>23653.04497916</v>
-      </c>
-      <c r="G318" t="n">
-        <v>794951.7972568797</v>
-      </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>676.9</v>
-      </c>
-      <c r="C319" t="n">
-        <v>671.7</v>
-      </c>
-      <c r="D319" t="n">
-        <v>680</v>
-      </c>
-      <c r="E319" t="n">
-        <v>663</v>
-      </c>
-      <c r="F319" t="n">
-        <v>64557.94291268</v>
-      </c>
-      <c r="G319" t="n">
-        <v>730393.8543441998</v>
-      </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>671.7</v>
-      </c>
-      <c r="C320" t="n">
-        <v>677</v>
-      </c>
-      <c r="D320" t="n">
-        <v>677</v>
-      </c>
-      <c r="E320" t="n">
-        <v>671.7</v>
-      </c>
-      <c r="F320" t="n">
-        <v>1095.05988732</v>
-      </c>
-      <c r="G320" t="n">
-        <v>731488.9142315198</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>677</v>
-      </c>
-      <c r="C321" t="n">
-        <v>690</v>
-      </c>
-      <c r="D321" t="n">
-        <v>690</v>
-      </c>
-      <c r="E321" t="n">
-        <v>676</v>
-      </c>
-      <c r="F321" t="n">
-        <v>92825.36440000001</v>
-      </c>
-      <c r="G321" t="n">
-        <v>824314.2786315198</v>
-      </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>690</v>
-      </c>
-      <c r="C322" t="n">
-        <v>719.5</v>
-      </c>
-      <c r="D322" t="n">
-        <v>720</v>
-      </c>
-      <c r="E322" t="n">
-        <v>690</v>
-      </c>
-      <c r="F322" t="n">
-        <v>33855.19478961</v>
-      </c>
-      <c r="G322" t="n">
-        <v>858169.4734211297</v>
-      </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>717.3</v>
-      </c>
-      <c r="C323" t="n">
-        <v>720</v>
-      </c>
-      <c r="D323" t="n">
-        <v>722</v>
-      </c>
-      <c r="E323" t="n">
-        <v>699.8</v>
-      </c>
-      <c r="F323" t="n">
-        <v>48303.08937498</v>
-      </c>
-      <c r="G323" t="n">
-        <v>906472.5627961097</v>
-      </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>720</v>
-      </c>
-      <c r="C324" t="n">
-        <v>718.8</v>
-      </c>
-      <c r="D324" t="n">
-        <v>725</v>
-      </c>
-      <c r="E324" t="n">
-        <v>717</v>
-      </c>
-      <c r="F324" t="n">
-        <v>21324.47197796</v>
-      </c>
-      <c r="G324" t="n">
-        <v>885148.0908181497</v>
-      </c>
-      <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>722</v>
-      </c>
-      <c r="C325" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="D325" t="n">
-        <v>724.9</v>
-      </c>
-      <c r="E325" t="n">
-        <v>704</v>
-      </c>
-      <c r="F325" t="n">
-        <v>52787.24037228</v>
-      </c>
-      <c r="G325" t="n">
-        <v>832360.8504458697</v>
-      </c>
-      <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>709.1</v>
-      </c>
-      <c r="C326" t="n">
-        <v>711</v>
-      </c>
-      <c r="D326" t="n">
-        <v>717.3</v>
-      </c>
-      <c r="E326" t="n">
-        <v>709</v>
-      </c>
-      <c r="F326" t="n">
-        <v>6359.791</v>
-      </c>
-      <c r="G326" t="n">
-        <v>838720.6414458697</v>
-      </c>
-      <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>711</v>
-      </c>
-      <c r="C327" t="n">
-        <v>712</v>
-      </c>
-      <c r="D327" t="n">
-        <v>712</v>
-      </c>
-      <c r="E327" t="n">
-        <v>704</v>
-      </c>
-      <c r="F327" t="n">
-        <v>52313.02711506</v>
-      </c>
-      <c r="G327" t="n">
-        <v>891033.6685609297</v>
-      </c>
-      <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>711</v>
-      </c>
-      <c r="C328" t="n">
-        <v>713</v>
-      </c>
-      <c r="D328" t="n">
-        <v>718.8</v>
-      </c>
-      <c r="E328" t="n">
-        <v>708.9</v>
-      </c>
-      <c r="F328" t="n">
-        <v>9280.215484939999</v>
-      </c>
-      <c r="G328" t="n">
-        <v>900313.8840458697</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
-      <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>713</v>
-      </c>
-      <c r="C329" t="n">
-        <v>725</v>
-      </c>
-      <c r="D329" t="n">
-        <v>725</v>
-      </c>
-      <c r="E329" t="n">
-        <v>712.1</v>
-      </c>
-      <c r="F329" t="n">
-        <v>62699.6112</v>
-      </c>
-      <c r="G329" t="n">
-        <v>963013.4952458697</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>723.7</v>
-      </c>
-      <c r="C330" t="n">
-        <v>760</v>
-      </c>
-      <c r="D330" t="n">
-        <v>760</v>
-      </c>
-      <c r="E330" t="n">
-        <v>723.7</v>
-      </c>
-      <c r="F330" t="n">
-        <v>99961.78359235</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1062975.27883822</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>760</v>
-      </c>
-      <c r="C331" t="n">
-        <v>778.7</v>
-      </c>
-      <c r="D331" t="n">
-        <v>788.9</v>
-      </c>
-      <c r="E331" t="n">
-        <v>759.1</v>
-      </c>
-      <c r="F331" t="n">
-        <v>100377.82232857</v>
-      </c>
-      <c r="G331" t="n">
-        <v>1163353.10116679</v>
-      </c>
-      <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>785.6</v>
-      </c>
-      <c r="C332" t="n">
-        <v>753.1</v>
-      </c>
-      <c r="D332" t="n">
-        <v>794</v>
-      </c>
-      <c r="E332" t="n">
-        <v>753.1</v>
-      </c>
-      <c r="F332" t="n">
-        <v>117050.59444725</v>
-      </c>
-      <c r="G332" t="n">
-        <v>1046302.50671954</v>
-      </c>
-      <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>757.9</v>
-      </c>
-      <c r="C333" t="n">
-        <v>783.7</v>
-      </c>
-      <c r="D333" t="n">
-        <v>785.9</v>
-      </c>
-      <c r="E333" t="n">
-        <v>754.4</v>
-      </c>
-      <c r="F333" t="n">
-        <v>79989.45390489</v>
-      </c>
-      <c r="G333" t="n">
-        <v>1126291.96062443</v>
-      </c>
-      <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>783.7</v>
-      </c>
-      <c r="C334" t="n">
-        <v>830.9</v>
-      </c>
-      <c r="D334" t="n">
-        <v>840</v>
-      </c>
-      <c r="E334" t="n">
-        <v>782.6</v>
-      </c>
-      <c r="F334" t="n">
-        <v>144152.27306256</v>
-      </c>
-      <c r="G334" t="n">
-        <v>1270444.23368699</v>
-      </c>
-      <c r="H334" t="n">
-        <v>2</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>830.9</v>
-      </c>
-      <c r="C335" t="n">
-        <v>840</v>
-      </c>
-      <c r="D335" t="n">
-        <v>849.9</v>
-      </c>
-      <c r="E335" t="n">
-        <v>818</v>
-      </c>
-      <c r="F335" t="n">
-        <v>123329.81690073</v>
-      </c>
-      <c r="G335" t="n">
-        <v>1393774.05058772</v>
-      </c>
-      <c r="H335" t="n">
-        <v>2</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>840</v>
-      </c>
-      <c r="C336" t="n">
-        <v>850.8</v>
-      </c>
-      <c r="D336" t="n">
-        <v>850.8</v>
-      </c>
-      <c r="E336" t="n">
-        <v>830</v>
-      </c>
-      <c r="F336" t="n">
-        <v>99908.74820082</v>
-      </c>
-      <c r="G336" t="n">
-        <v>1493682.79878854</v>
-      </c>
-      <c r="H336" t="n">
-        <v>2</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>851.7</v>
-      </c>
-      <c r="C337" t="n">
-        <v>872</v>
-      </c>
-      <c r="D337" t="n">
-        <v>888</v>
-      </c>
-      <c r="E337" t="n">
-        <v>851.7</v>
-      </c>
-      <c r="F337" t="n">
-        <v>174917.86878179</v>
-      </c>
-      <c r="G337" t="n">
-        <v>1668600.66757033</v>
-      </c>
-      <c r="H337" t="n">
-        <v>2</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>871</v>
-      </c>
-      <c r="C338" t="n">
-        <v>860.1</v>
-      </c>
-      <c r="D338" t="n">
-        <v>880</v>
-      </c>
-      <c r="E338" t="n">
-        <v>855.1</v>
-      </c>
-      <c r="F338" t="n">
-        <v>72594.874</v>
-      </c>
-      <c r="G338" t="n">
-        <v>1596005.79357033</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>866.5</v>
-      </c>
-      <c r="C339" t="n">
-        <v>868</v>
-      </c>
-      <c r="D339" t="n">
-        <v>879</v>
-      </c>
-      <c r="E339" t="n">
-        <v>860.5</v>
-      </c>
-      <c r="F339" t="n">
-        <v>55958.64705314</v>
-      </c>
-      <c r="G339" t="n">
-        <v>1651964.44062347</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>871</v>
-      </c>
-      <c r="C340" t="n">
-        <v>860</v>
-      </c>
-      <c r="D340" t="n">
-        <v>871</v>
-      </c>
-      <c r="E340" t="n">
-        <v>859.8</v>
-      </c>
-      <c r="F340" t="n">
-        <v>34973.88795355</v>
-      </c>
-      <c r="G340" t="n">
-        <v>1616990.55266992</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>860</v>
-      </c>
-      <c r="C341" t="n">
-        <v>869</v>
-      </c>
-      <c r="D341" t="n">
-        <v>876.8</v>
-      </c>
-      <c r="E341" t="n">
-        <v>860</v>
-      </c>
-      <c r="F341" t="n">
-        <v>22243.42155237</v>
-      </c>
-      <c r="G341" t="n">
-        <v>1639233.97422229</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>869</v>
-      </c>
-      <c r="C342" t="n">
-        <v>860.7</v>
-      </c>
-      <c r="D342" t="n">
-        <v>871</v>
-      </c>
-      <c r="E342" t="n">
-        <v>840</v>
-      </c>
-      <c r="F342" t="n">
-        <v>78686.29532037</v>
-      </c>
-      <c r="G342" t="n">
-        <v>1560547.67890192</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>860.7</v>
-      </c>
-      <c r="C343" t="n">
-        <v>861.5</v>
-      </c>
-      <c r="D343" t="n">
-        <v>863.9</v>
-      </c>
-      <c r="E343" t="n">
-        <v>860</v>
-      </c>
-      <c r="F343" t="n">
-        <v>58452.73001784</v>
-      </c>
-      <c r="G343" t="n">
-        <v>1619000.40891976</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>860</v>
-      </c>
-      <c r="C344" t="n">
-        <v>861.5</v>
-      </c>
-      <c r="D344" t="n">
-        <v>861.5</v>
-      </c>
-      <c r="E344" t="n">
-        <v>843.1</v>
-      </c>
-      <c r="F344" t="n">
-        <v>59462.6677</v>
-      </c>
-      <c r="G344" t="n">
-        <v>1619000.40891976</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>861.4</v>
-      </c>
-      <c r="C345" t="n">
-        <v>870</v>
-      </c>
-      <c r="D345" t="n">
-        <v>876.8</v>
-      </c>
-      <c r="E345" t="n">
-        <v>856.4</v>
-      </c>
-      <c r="F345" t="n">
-        <v>56523.4624635</v>
-      </c>
-      <c r="G345" t="n">
-        <v>1675523.87138326</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>870</v>
-      </c>
-      <c r="C346" t="n">
-        <v>891.1</v>
-      </c>
-      <c r="D346" t="n">
-        <v>898.9</v>
-      </c>
-      <c r="E346" t="n">
-        <v>868.1</v>
-      </c>
-      <c r="F346" t="n">
-        <v>143130.14041542</v>
-      </c>
-      <c r="G346" t="n">
-        <v>1818654.01179868</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>896.6</v>
-      </c>
-      <c r="C347" t="n">
-        <v>919.1</v>
-      </c>
-      <c r="D347" t="n">
-        <v>940</v>
-      </c>
-      <c r="E347" t="n">
-        <v>896.6</v>
-      </c>
-      <c r="F347" t="n">
-        <v>112632.1734546</v>
-      </c>
-      <c r="G347" t="n">
-        <v>1931286.18525328</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>918.9</v>
-      </c>
-      <c r="C348" t="n">
-        <v>928</v>
-      </c>
-      <c r="D348" t="n">
-        <v>929.1</v>
-      </c>
-      <c r="E348" t="n">
-        <v>910</v>
-      </c>
-      <c r="F348" t="n">
-        <v>67163.25885578</v>
-      </c>
-      <c r="G348" t="n">
-        <v>1998449.444109059</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -13564,7 +13560,7 @@
         <v>1946575.428013589</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13597,7 +13593,7 @@
         <v>1907763.977911039</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13630,7 +13626,7 @@
         <v>1932435.090201709</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13663,7 +13659,7 @@
         <v>1989183.356134719</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13696,7 +13692,7 @@
         <v>1928567.802154909</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13729,7 +13725,7 @@
         <v>1864052.163940989</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13762,7 +13758,7 @@
         <v>1815680.524540989</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13795,7 +13791,7 @@
         <v>1773099.948340989</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13828,7 +13824,7 @@
         <v>1717239.308864939</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13861,7 +13857,7 @@
         <v>1586574.663064939</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13894,7 +13890,7 @@
         <v>1633333.265868929</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13927,7 +13923,7 @@
         <v>1687131.354154049</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14026,7 +14022,7 @@
         <v>1612608.525060699</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14059,7 +14055,7 @@
         <v>1592801.886060699</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -14191,7 +14187,7 @@
         <v>1622991.913024779</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14224,7 +14220,7 @@
         <v>1638621.823974259</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14257,7 +14253,7 @@
         <v>1581829.443874259</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14290,7 +14286,7 @@
         <v>1551977.45837426</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14488,7 +14484,7 @@
         <v>1560154.555278489</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14521,7 +14517,7 @@
         <v>1592126.078099989</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15973,7 +15969,7 @@
         <v>1987707.89243712</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16006,7 +16002,7 @@
         <v>1997973.73093065</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16039,7 +16035,7 @@
         <v>1976485.82801479</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16072,7 +16068,7 @@
         <v>1948800.80540289</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16105,7 +16101,7 @@
         <v>1956185.77670289</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16171,7 +16167,7 @@
         <v>1920814.34574259</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16204,7 +16200,7 @@
         <v>1889701.69396506</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16237,7 +16233,7 @@
         <v>1876279.73953672</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16270,7 +16266,7 @@
         <v>1901682.37557763</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16303,7 +16299,7 @@
         <v>1893283.67707763</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16336,7 +16332,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16369,7 +16365,7 @@
         <v>1908966.03404996</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16402,7 +16398,7 @@
         <v>1906123.99644996</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16435,7 +16431,7 @@
         <v>1901730.55724996</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16567,7 +16563,7 @@
         <v>1874549.81524996</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16600,7 +16596,7 @@
         <v>1879435.77022272</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16633,7 +16629,7 @@
         <v>1896801.61002272</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16666,7 +16662,7 @@
         <v>1910078.56143983</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16699,7 +16695,7 @@
         <v>1919283.78070206</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16732,7 +16728,7 @@
         <v>1927174.48222768</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16765,7 +16761,7 @@
         <v>1888626.51062768</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16798,7 +16794,7 @@
         <v>1881354.45252382</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16831,7 +16827,7 @@
         <v>1895881.64048794</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16864,7 +16860,7 @@
         <v>1894256.444152059</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16897,7 +16893,7 @@
         <v>1889830.43848891</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16930,7 +16926,7 @@
         <v>1888646.85138891</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -25114,7 +25110,7 @@
         <v>1906702.06716557</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -25147,7 +25143,7 @@
         <v>1904736.3802045</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -25444,7 +25440,7 @@
         <v>1976112.04032368</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -25477,7 +25473,7 @@
         <v>1991792.41937121</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -25510,7 +25506,7 @@
         <v>2019070.82632368</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -25543,7 +25539,7 @@
         <v>2025864.82552368</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -25576,7 +25572,7 @@
         <v>2049656.94908465</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -25609,7 +25605,7 @@
         <v>2079680.8295352</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -25642,7 +25638,7 @@
         <v>2064983.96301198</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -25675,7 +25671,7 @@
         <v>2035848.35735858</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -25708,7 +25704,7 @@
         <v>2048164.39325858</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25741,7 +25737,7 @@
         <v>2019477.76076426</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -25774,7 +25770,7 @@
         <v>2013896.18513724</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -25807,7 +25803,7 @@
         <v>1999151.57232668</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -25840,7 +25836,7 @@
         <v>1994094.22165952</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -25873,7 +25869,7 @@
         <v>2007532.76016787</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -25906,7 +25902,7 @@
         <v>1992382.05117358</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -25939,7 +25935,7 @@
         <v>1973439.21237358</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -31978,7 +31974,7 @@
         <v>1826552.434324689</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32011,7 +32007,7 @@
         <v>1836859.1959273</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32044,7 +32040,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32077,7 +32073,7 @@
         <v>1848900.4440273</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -32110,7 +32106,7 @@
         <v>1838429.390227299</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -32143,7 +32139,7 @@
         <v>1846220.216956449</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -32176,7 +32172,7 @@
         <v>1862670.93027783</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -32209,7 +32205,7 @@
         <v>1875862.219377829</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -32242,7 +32238,7 @@
         <v>1901760.601277829</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -32275,7 +32271,7 @@
         <v>1885086.418976369</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -32308,7 +32304,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -32341,7 +32337,7 @@
         <v>1913200.461874909</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -32374,7 +32370,7 @@
         <v>1935319.842974909</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -32407,7 +32403,7 @@
         <v>1963566.890363389</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -32440,7 +32436,7 @@
         <v>1951187.486473319</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -32473,7 +32469,7 @@
         <v>1943258.024144159</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -32506,7 +32502,7 @@
         <v>1903700.322544159</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -32539,7 +32535,7 @@
         <v>1920589.940544159</v>
       </c>
       <c r="H924" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -32572,7 +32568,7 @@
         <v>1909122.004744159</v>
       </c>
       <c r="H925" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -32605,7 +32601,7 @@
         <v>1905827.002344159</v>
       </c>
       <c r="H926" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -32638,7 +32634,7 @@
         <v>1886840.589246769</v>
       </c>
       <c r="H927" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -32671,7 +32667,7 @@
         <v>1876324.101846769</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32704,7 +32700,7 @@
         <v>1850083.727046769</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32737,7 +32733,7 @@
         <v>1835120.260646769</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32770,7 +32766,7 @@
         <v>1845530.198546769</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32803,7 +32799,7 @@
         <v>1847653.696546769</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32836,7 +32832,7 @@
         <v>1853607.677946769</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32869,7 +32865,7 @@
         <v>1861485.088946769</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -32902,7 +32898,7 @@
         <v>1870930.361249379</v>
       </c>
       <c r="H935" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
@@ -32935,7 +32931,7 @@
         <v>1863712.799149379</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -32968,7 +32964,7 @@
         <v>1860093.235549379</v>
       </c>
       <c r="H937" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
